--- a/TempiEsecuzione.xlsx
+++ b/TempiEsecuzione.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\OneDrive\Desktop\A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0553DD1F-F7F1-43CE-BADE-80DD551107B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA52E301-575F-454C-BBFE-693DF32A853F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FABEE0A6-FD48-42DA-83E8-CA7CBF45802A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>D=len(P)</t>
   </si>
@@ -56,23 +56,38 @@
     <t>GRAFO CON N=34, M=78, C=36</t>
   </si>
   <si>
-    <t>GRAFO CON N=1175, M=1417, C=1356</t>
-  </si>
-  <si>
     <t>GRAFO CON N=1576, M=4032, C=3098</t>
   </si>
   <si>
-    <t>GRAFO CON N=4941, M=6594, 5687</t>
+    <t>GRAFO CON N=58228, M=214078, C=290004</t>
   </si>
   <si>
-    <t>GRAFO CON N=58228, M=214078, C=290004</t>
+    <t>GRAFO CON N=4941, M=6594,C = 5687</t>
+  </si>
+  <si>
+    <t>http://konect.cc/networks/ucidata-zachary/</t>
+  </si>
+  <si>
+    <t>http://konect.cc/networks/subelj_euroroad/</t>
+  </si>
+  <si>
+    <t>GRAFO CON N=1174, M=1417, C=1356</t>
+  </si>
+  <si>
+    <t>http://konect.cc/networks/petster-hamster-household/</t>
+  </si>
+  <si>
+    <t>http://konect.cc/networks/opsahl-powergrid/</t>
+  </si>
+  <si>
+    <t>http://konect.cc/networks/loc-brightkite_edges/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,8 +114,23 @@
       <family val="1"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Display"/>
       <family val="2"/>
       <scheme val="major"/>
@@ -108,7 +138,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -131,19 +161,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3513,7 +3545,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>N=1175; M=1417</a:t>
+              <a:t>N=1174; M=1417</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4519,7 +4551,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>N=1175; M=1417</a:t>
+              <a:t>N=1174; M=1417</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5716,7 +5748,7 @@
                   <c:v>1.76E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7799999999999999E-4</c:v>
+                  <c:v>1.8100000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.9000000000000001E-4</c:v>
@@ -6714,7 +6746,7 @@
                   <c:v>1.76E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7799999999999999E-4</c:v>
+                  <c:v>1.8100000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.9000000000000001E-4</c:v>
@@ -13429,8 +13461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2D9105-EE15-45BF-B336-88249D294A6D}">
   <dimension ref="A1:Q164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="85" workbookViewId="0">
-      <selection activeCell="K164" sqref="K164"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13445,10 +13477,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -13530,7 +13567,7 @@
         <v>1.2400000000000001E-4</v>
       </c>
       <c r="C8">
-        <v>1.7799999999999999E-4</v>
+        <v>1.8100000000000001E-4</v>
       </c>
       <c r="D8">
         <v>1.1150000000000001E-3</v>
@@ -13873,8 +13910,13 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>6</v>
+      <c r="A34" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -14114,7 +14156,7 @@
       <c r="D52">
         <v>2.8322E-2</v>
       </c>
-      <c r="O52" s="4"/>
+      <c r="O52" s="3"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53">
@@ -14299,8 +14341,13 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>7</v>
+      <c r="A67" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -14724,8 +14771,13 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+      <c r="A100" s="5" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -14909,7 +14961,7 @@
       <c r="D114">
         <v>0.13186999999999999</v>
       </c>
-      <c r="J114" s="4"/>
+      <c r="J114" s="3"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115">
@@ -15106,9 +15158,9 @@
       <c r="D128">
         <v>0.13186999999999999</v>
       </c>
-      <c r="Q128" s="4"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="Q128" s="3"/>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>180</v>
       </c>
@@ -15122,7 +15174,7 @@
         <v>0.13186999999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>190</v>
       </c>
@@ -15136,7 +15188,7 @@
         <v>0.13186999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>200</v>
       </c>
@@ -15150,12 +15202,17 @@
         <v>0.13186999999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A133" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>2</v>
       </c>
@@ -15169,7 +15226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1</v>
       </c>
@@ -15183,7 +15240,7 @@
         <v>6.0737519999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>2</v>
       </c>
@@ -15197,7 +15254,7 @@
         <v>6.8339939999999997</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>3</v>
       </c>
@@ -15211,7 +15268,7 @@
         <v>7.4460689999999996</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>4</v>
       </c>
@@ -15225,7 +15282,7 @@
         <v>7.8188930000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>5</v>
       </c>
@@ -15239,7 +15296,7 @@
         <v>7.8707250000000002</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>6</v>
       </c>
@@ -15249,9 +15306,9 @@
       <c r="C141">
         <v>0.98417699999999997</v>
       </c>
-      <c r="J141" s="4"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J141" s="3"/>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>7</v>
       </c>
@@ -15262,7 +15319,7 @@
         <v>1.036203</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>8</v>
       </c>
@@ -15272,8 +15329,9 @@
       <c r="C143">
         <v>1.0666709999999999</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="P143" s="3"/>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>9</v>
       </c>
@@ -15346,7 +15404,7 @@
       <c r="A150">
         <v>60</v>
       </c>
-      <c r="B150" s="6">
+      <c r="B150">
         <v>3.1794449999999999</v>
       </c>
       <c r="C150">
@@ -15462,7 +15520,7 @@
       <c r="B160">
         <v>3.190007</v>
       </c>
-      <c r="C160" s="4">
+      <c r="C160" s="3">
         <v>8.5311330000000005</v>
       </c>
     </row>
@@ -15506,17 +15564,20 @@
       <c r="B164">
         <v>3.1920449999999998</v>
       </c>
-      <c r="C164" s="5">
+      <c r="C164">
         <v>10.431285000000001</v>
       </c>
-      <c r="D164" s="5">
+      <c r="D164">
         <v>111.780191</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{E507F12D-3090-4729-B0BF-36E73E6A54E4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/TempiEsecuzione.xlsx
+++ b/TempiEsecuzione.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\OneDrive\UNI\Tirocinio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C72D4EFD-64EB-41A8-83B4-088F45997BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14C2C86A-D298-4F31-BAE3-27BE41F4C278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FABEE0A6-FD48-42DA-83E8-CA7CBF45802A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="26">
   <si>
     <t>D=len(P)</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>GRAFO CON N=58228, M=214078, C=290004</t>
-  </si>
-  <si>
-    <t>GRAFO CON N=4941, M=6594,C = 5687</t>
   </si>
   <si>
     <t>http://konect.cc/networks/ucidata-zachary/</t>
@@ -97,12 +94,33 @@
   <si>
     <t>v2: if AE_C + len(C)*len(P) - L*len(C) &gt; D*(L + len(C))</t>
   </si>
+  <si>
+    <t xml:space="preserve">D=1+maxGrado </t>
+  </si>
+  <si>
+    <t>e=1</t>
+  </si>
+  <si>
+    <t>e=2</t>
+  </si>
+  <si>
+    <t>e=3</t>
+  </si>
+  <si>
+    <t>NUMERO DI CHIAMATE RICORSIVE</t>
+  </si>
+  <si>
+    <t>D=maxGradiOrdinati (v3)</t>
+  </si>
+  <si>
+    <t>GRAFO CON N=4941, M=6594, C=5687</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +176,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -188,7 +214,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -294,7 +320,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$69</c:f>
+              <c:f>Foglio1!$B$71</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -329,10 +355,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$70:$A$98</c:f>
+              <c:f>Foglio1!$A$72:$A$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -395,40 +421,16 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$B$70:$B$98</c:f>
+              <c:f>Foglio1!$B$72:$B$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1.4581E-2</c:v>
                 </c:pt>
@@ -490,30 +492,6 @@
                   <c:v>1.4871000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.4871000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.4871000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.4871000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.4871000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.4871000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.4871000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.4871000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.4871000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
                   <c:v>1.4871000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -531,7 +509,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$69</c:f>
+              <c:f>Foglio1!$C$71</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -566,10 +544,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$70:$A$98</c:f>
+              <c:f>Foglio1!$A$72:$A$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -632,40 +610,16 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$C$70:$C$98</c:f>
+              <c:f>Foglio1!$C$72:$C$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>7.8960000000000002E-3</c:v>
                 </c:pt>
@@ -727,30 +681,6 @@
                   <c:v>2.1093000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.1093000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.1093000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.1093000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.1093000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.1093000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.1093000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.1093000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.1093000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
                   <c:v>2.1093000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1732,6 +1662,141 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D=maxGradiOrdinati (v3)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$A$4:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$G$4:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.9900000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6100000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5600000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.8000000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9200000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1310000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1789999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.199E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.201E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.201E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.201E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B8D5-4776-A26F-4C6EA0781025}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2700,6 +2765,141 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$G$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D=maxGradiOrdinati (v3)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$A$37:$A$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$G$37:$G$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.3979E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5727E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6068999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6367000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6384000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6495999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6501E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6501E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6501E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6501E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6501E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.6501E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-66AA-4691-A63A-C6851219F86C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2998,7 +3198,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$E$69</c:f>
+              <c:f>Foglio1!$E$71</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3033,7 +3233,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$70:$A$81</c:f>
+              <c:f>Foglio1!$A$72:$A$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3078,7 +3278,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$E$70:$E$81</c:f>
+              <c:f>Foglio1!$E$72:$E$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3133,7 +3333,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$F$69</c:f>
+              <c:f>Foglio1!$F$71</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3168,7 +3368,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$70:$A$81</c:f>
+              <c:f>Foglio1!$A$72:$A$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3213,7 +3413,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$F$70:$F$81</c:f>
+              <c:f>Foglio1!$F$72:$F$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3561,7 +3761,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$69</c:f>
+              <c:f>Foglio1!$B$71</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3596,7 +3796,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$70:$A$81</c:f>
+              <c:f>Foglio1!$A$72:$A$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3641,7 +3841,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$B$70:$B$81</c:f>
+              <c:f>Foglio1!$B$72:$B$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3696,7 +3896,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$69</c:f>
+              <c:f>Foglio1!$C$71</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3731,7 +3931,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$70:$A$81</c:f>
+              <c:f>Foglio1!$A$72:$A$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3776,7 +3976,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$C$70:$C$81</c:f>
+              <c:f>Foglio1!$C$72:$C$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3831,7 +4031,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$E$69</c:f>
+              <c:f>Foglio1!$E$71</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3866,7 +4066,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$70:$A$81</c:f>
+              <c:f>Foglio1!$A$72:$A$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3911,7 +4111,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$E$70:$E$81</c:f>
+              <c:f>Foglio1!$E$72:$E$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3966,7 +4166,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$F$69</c:f>
+              <c:f>Foglio1!$F$71</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4001,7 +4201,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$70:$A$81</c:f>
+              <c:f>Foglio1!$A$72:$A$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4046,7 +4246,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$F$70:$F$81</c:f>
+              <c:f>Foglio1!$F$72:$F$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4394,7 +4594,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$69</c:f>
+              <c:f>Foglio1!$B$71</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4429,7 +4629,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$70:$A$81</c:f>
+              <c:f>Foglio1!$A$72:$A$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4474,7 +4674,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$B$70:$B$81</c:f>
+              <c:f>Foglio1!$B$72:$B$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4529,7 +4729,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$69</c:f>
+              <c:f>Foglio1!$C$71</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4564,7 +4764,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$70:$A$81</c:f>
+              <c:f>Foglio1!$A$72:$A$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4609,7 +4809,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$C$70:$C$81</c:f>
+              <c:f>Foglio1!$C$72:$C$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4664,7 +4864,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$D$69</c:f>
+              <c:f>Foglio1!$D$71</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4699,7 +4899,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$70:$A$81</c:f>
+              <c:f>Foglio1!$A$72:$A$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4744,7 +4944,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$D$70:$D$81</c:f>
+              <c:f>Foglio1!$D$72:$D$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4799,7 +4999,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$E$69</c:f>
+              <c:f>Foglio1!$E$71</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4834,7 +5034,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$70:$A$81</c:f>
+              <c:f>Foglio1!$A$72:$A$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4879,7 +5079,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$E$70:$E$81</c:f>
+              <c:f>Foglio1!$E$72:$E$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4934,7 +5134,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$F$69</c:f>
+              <c:f>Foglio1!$F$71</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4969,7 +5169,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$70:$A$81</c:f>
+              <c:f>Foglio1!$A$72:$A$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5014,7 +5214,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$F$70:$F$81</c:f>
+              <c:f>Foglio1!$F$72:$F$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5061,6 +5261,141 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-EBC0-486C-9DB6-219B0F0C619A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$G$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D=maxGradiOrdinati (v3)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$A$72:$A$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$G$72:$G$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.2560000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1422000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7349999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3390000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1525000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3097999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4489E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.5833999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.6369000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.9059000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.6155000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5DE5-40AD-8F87-EAB77146C3BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5360,7 +5695,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$102</c:f>
+              <c:f>Foglio1!$B$104</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5395,7 +5730,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$103:$A$114</c:f>
+              <c:f>Foglio1!$A$105:$A$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5440,7 +5775,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$B$103:$B$114</c:f>
+              <c:f>Foglio1!$B$105:$B$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5495,7 +5830,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$102</c:f>
+              <c:f>Foglio1!$C$104</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5530,7 +5865,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$103:$A$114</c:f>
+              <c:f>Foglio1!$A$105:$A$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5575,7 +5910,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$C$103:$C$114</c:f>
+              <c:f>Foglio1!$C$105:$C$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5630,11 +5965,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$D$102</c:f>
+              <c:f>Foglio1!$D$104</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>D=1+maxGrado</c:v>
+                  <c:v>D=1+maxGrado </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5665,7 +6000,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$103:$A$114</c:f>
+              <c:f>Foglio1!$A$105:$A$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5710,7 +6045,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$D$103:$D$114</c:f>
+              <c:f>Foglio1!$D$105:$D$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5765,7 +6100,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$E$102</c:f>
+              <c:f>Foglio1!$E$104</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5800,7 +6135,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$103:$A$114</c:f>
+              <c:f>Foglio1!$A$105:$A$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5845,7 +6180,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$E$103:$E$114</c:f>
+              <c:f>Foglio1!$E$105:$E$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5900,7 +6235,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$F$102</c:f>
+              <c:f>Foglio1!$F$104</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5935,7 +6270,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$103:$A$114</c:f>
+              <c:f>Foglio1!$A$105:$A$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5980,7 +6315,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$F$103:$F$114</c:f>
+              <c:f>Foglio1!$F$105:$F$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6027,6 +6362,141 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-A136-45AE-B4D4-1D5388E1BB69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$G$104</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D=maxGradiOrdinati (v3)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$A$105:$A$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$G$105:$G$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.10566</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11726200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.122391</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12517</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.125607</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12652099999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12692800000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12610499999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.126194</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.126195</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.12620899999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12620899999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7806-4844-BDBC-3E7A16AFCAE6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6329,7 +6799,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$102</c:f>
+              <c:f>Foglio1!$B$104</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6364,7 +6834,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$103:$A$114</c:f>
+              <c:f>Foglio1!$A$105:$A$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6409,7 +6879,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$B$103:$B$114</c:f>
+              <c:f>Foglio1!$B$105:$B$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6464,7 +6934,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$102</c:f>
+              <c:f>Foglio1!$C$104</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6499,7 +6969,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$103:$A$114</c:f>
+              <c:f>Foglio1!$A$105:$A$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6544,7 +7014,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$C$103:$C$114</c:f>
+              <c:f>Foglio1!$C$105:$C$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6599,7 +7069,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$E$102</c:f>
+              <c:f>Foglio1!$E$104</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6634,7 +7104,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$103:$A$114</c:f>
+              <c:f>Foglio1!$A$105:$A$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6679,7 +7149,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$E$103:$E$114</c:f>
+              <c:f>Foglio1!$E$105:$E$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6734,7 +7204,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$F$102</c:f>
+              <c:f>Foglio1!$F$104</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6769,7 +7239,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$103:$A$114</c:f>
+              <c:f>Foglio1!$A$105:$A$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6814,7 +7284,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$F$103:$F$114</c:f>
+              <c:f>Foglio1!$F$105:$F$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7163,7 +7633,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$E$102</c:f>
+              <c:f>Foglio1!$E$104</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7198,7 +7668,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$103:$A$113</c:f>
+              <c:f>Foglio1!$A$105:$A$115</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -7240,7 +7710,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$E$103:$E$113</c:f>
+              <c:f>Foglio1!$E$105:$E$115</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -7292,7 +7762,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$F$102</c:f>
+              <c:f>Foglio1!$F$104</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7327,7 +7797,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$103:$A$113</c:f>
+              <c:f>Foglio1!$A$105:$A$115</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -7369,7 +7839,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$F$103:$F$113</c:f>
+              <c:f>Foglio1!$F$105:$F$115</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -7714,7 +8184,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$E$135</c:f>
+              <c:f>Foglio1!$E$140</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7749,7 +8219,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$136:$A$147</c:f>
+              <c:f>Foglio1!$A$141:$A$152</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7794,7 +8264,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$E$136:$E$147</c:f>
+              <c:f>Foglio1!$E$141:$E$152</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7849,7 +8319,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$F$135</c:f>
+              <c:f>Foglio1!$F$140</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7884,7 +8354,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$136:$A$147</c:f>
+              <c:f>Foglio1!$A$141:$A$152</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7929,7 +8399,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$F$136:$F$147</c:f>
+              <c:f>Foglio1!$F$141:$F$152</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8279,7 +8749,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$135</c:f>
+              <c:f>Foglio1!$B$140</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8314,7 +8784,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$136:$A$147</c:f>
+              <c:f>Foglio1!$A$141:$A$152</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8359,7 +8829,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$B$136:$B$147</c:f>
+              <c:f>Foglio1!$B$141:$B$152</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8414,7 +8884,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$135</c:f>
+              <c:f>Foglio1!$C$140</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8449,7 +8919,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$136:$A$147</c:f>
+              <c:f>Foglio1!$A$141:$A$152</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8494,7 +8964,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$C$136:$C$147</c:f>
+              <c:f>Foglio1!$C$141:$C$152</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8549,7 +9019,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$E$135</c:f>
+              <c:f>Foglio1!$E$140</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8584,7 +9054,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$136:$A$147</c:f>
+              <c:f>Foglio1!$A$141:$A$152</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8629,7 +9099,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$E$136:$E$147</c:f>
+              <c:f>Foglio1!$E$141:$E$152</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8684,7 +9154,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$F$135</c:f>
+              <c:f>Foglio1!$F$140</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8719,7 +9189,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$136:$A$147</c:f>
+              <c:f>Foglio1!$A$141:$A$152</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8764,7 +9234,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$F$136:$F$147</c:f>
+              <c:f>Foglio1!$F$141:$F$152</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -9113,7 +9583,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$102</c:f>
+              <c:f>Foglio1!$B$104</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9148,7 +9618,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$103:$A$113</c:f>
+              <c:f>Foglio1!$A$105:$A$115</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -9190,7 +9660,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$B$103:$B$113</c:f>
+              <c:f>Foglio1!$B$105:$B$115</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -9242,7 +9712,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$102</c:f>
+              <c:f>Foglio1!$C$104</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9277,7 +9747,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$103:$A$113</c:f>
+              <c:f>Foglio1!$A$105:$A$115</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -9319,7 +9789,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$C$103:$C$113</c:f>
+              <c:f>Foglio1!$C$105:$C$115</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -9659,7 +10129,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$135</c:f>
+              <c:f>Foglio1!$B$140</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9694,7 +10164,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$136:$A$147</c:f>
+              <c:f>Foglio1!$A$141:$A$152</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -9739,7 +10209,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$B$136:$B$147</c:f>
+              <c:f>Foglio1!$B$141:$B$152</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -9794,7 +10264,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$135</c:f>
+              <c:f>Foglio1!$C$140</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9829,7 +10299,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$136:$A$147</c:f>
+              <c:f>Foglio1!$A$141:$A$152</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -9874,7 +10344,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$C$136:$C$147</c:f>
+              <c:f>Foglio1!$C$141:$C$152</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -9929,7 +10399,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$D$135</c:f>
+              <c:f>Foglio1!$D$140</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9964,7 +10434,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$136:$A$147</c:f>
+              <c:f>Foglio1!$A$141:$A$152</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -10009,27 +10479,45 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$D$136:$D$147</c:f>
+              <c:f>Foglio1!$D$141:$D$152</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>6.0737519999999998</c:v>
+                  <c:v>5.3123500000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8339939999999997</c:v>
+                  <c:v>6.3695190000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.4460689999999996</c:v>
+                  <c:v>7.2284990000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.8188930000000001</c:v>
+                  <c:v>7.9970540000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.8707250000000002</c:v>
+                  <c:v>8.4478430000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.901484</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.2353930000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.7273019999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.040746</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.187727000000001</c:v>
+                  <c:v>10.382071</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.281852000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.370843000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10046,7 +10534,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$E$135</c:f>
+              <c:f>Foglio1!$E$140</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10081,7 +10569,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$136:$A$147</c:f>
+              <c:f>Foglio1!$A$141:$A$152</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -10126,7 +10614,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$E$136:$E$147</c:f>
+              <c:f>Foglio1!$E$141:$E$152</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -10181,7 +10669,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$F$135</c:f>
+              <c:f>Foglio1!$F$140</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10216,7 +10704,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$136:$A$147</c:f>
+              <c:f>Foglio1!$A$141:$A$152</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -10261,7 +10749,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$F$136:$F$147</c:f>
+              <c:f>Foglio1!$F$141:$F$152</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -10308,6 +10796,141 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-4413-4D1F-BB56-4EE0A252DE03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$G$140</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D=maxGradiOrdinati (v3)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$A$141:$A$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$G$141:$G$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.0485189999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6626700000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7551410000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2161059999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7022599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.064546</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3599670000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.638719</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.9520119999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.3285029999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.134116000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.89859</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CF78-4B01-80AC-B473FD3C3C43}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10644,10 +11267,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$37:$A$65</c:f>
+              <c:f>Foglio1!$A$37:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -10683,67 +11306,16 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$B$37:$B$65</c:f>
+              <c:f>Foglio1!$B$37:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>3.8180000000000002E-3</c:v>
                 </c:pt>
@@ -10778,57 +11350,6 @@
                   <c:v>3.8969999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.8969999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.8969999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.8969999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.8969999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.8969999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.8969999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.8969999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.8969999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.8969999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.8969999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.8969999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.8969999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.8969999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.8969999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.8969999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.8969999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.8969999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
                   <c:v>3.8969999999999999E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -10881,10 +11402,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$37:$A$65</c:f>
+              <c:f>Foglio1!$A$37:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -10920,67 +11441,16 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$C$37:$C$65</c:f>
+              <c:f>Foglio1!$C$37:$C$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>5.2050000000000004E-3</c:v>
                 </c:pt>
@@ -11015,57 +11485,6 @@
                   <c:v>5.6829999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.6829999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.6829999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.6829999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.6829999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.6829999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.6829999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.6829999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.6829999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.6829999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.6829999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.6829999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.6829999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.6829999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5.6829999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5.6829999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5.6829999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5.6829999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
                   <c:v>5.6829999999999997E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -11413,10 +11832,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$4:$A$32</c:f>
+              <c:f>Foglio1!$A$4:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -11452,67 +11871,16 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$B$4:$B$32</c:f>
+              <c:f>Foglio1!$B$4:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.1900000000000001E-4</c:v>
                 </c:pt>
@@ -11547,57 +11915,6 @@
                   <c:v>1.27E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.27E-4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.27E-4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.27E-4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.27E-4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.27E-4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.27E-4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.27E-4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.27E-4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.27E-4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.27E-4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.27E-4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.27E-4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.27E-4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.27E-4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.27E-4</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.27E-4</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.27E-4</c:v>
-                </c:pt>
-                <c:pt idx="28">
                   <c:v>1.27E-4</c:v>
                 </c:pt>
               </c:numCache>
@@ -11650,10 +11967,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$4:$A$32</c:f>
+              <c:f>Foglio1!$A$4:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -11689,67 +12006,16 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$C$4:$C$32</c:f>
+              <c:f>Foglio1!$C$4:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.2999999999999999E-4</c:v>
                 </c:pt>
@@ -11784,57 +12050,6 @@
                   <c:v>2.0699999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0699999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.0699999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.0699999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.0699999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.0699999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.0699999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.0699999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.0699999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.0699999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.0699999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.0699999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.0699999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.0699999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.0699999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.0699999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.0699999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.0699999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="28">
                   <c:v>2.0699999999999999E-4</c:v>
                 </c:pt>
               </c:numCache>
@@ -12145,7 +12360,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$B$135</c:f>
+              <c:f>Foglio1!$B$140</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12180,7 +12395,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$136:$A$164</c:f>
+              <c:f>Foglio1!$A$141:$A$169</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
@@ -12276,7 +12491,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$B$136:$B$164</c:f>
+              <c:f>Foglio1!$B$141:$B$169</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
@@ -12382,7 +12597,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$C$135</c:f>
+              <c:f>Foglio1!$C$140</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12417,7 +12632,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$A$136:$A$164</c:f>
+              <c:f>Foglio1!$A$141:$A$169</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
@@ -12513,7 +12728,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$C$136:$C$164</c:f>
+              <c:f>Foglio1!$C$141:$C$169</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
@@ -26746,15 +26961,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>425824</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>161364</xdr:rowOff>
+      <xdr:colOff>190692</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>85164</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>600636</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>35858</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>496134</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>144715</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26781,16 +26996,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>398932</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>116540</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1184880</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>120894</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>502024</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>170328</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504202</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>172505</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26817,16 +27032,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>488578</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>8966</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>364480</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>176606</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>555813</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>62754</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257545</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>47514</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26853,16 +27068,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>506507</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>560935</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>108859</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>587189</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>26895</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>478332</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>168411</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26890,15 +27105,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>398929</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>8964</xdr:rowOff>
+      <xdr:colOff>128962</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>78633</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>573742</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>125506</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>434405</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>12295</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26925,16 +27140,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>542364</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>71718</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400848</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>137032</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>623047</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>71718</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>459761</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26961,16 +27176,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>658906</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>98613</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>386763</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>121023</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>98613</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>458480</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>643</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26997,16 +27212,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>479611</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>8965</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>39827</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>39445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>560294</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>62753</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>98740</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>91056</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27033,16 +27248,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>640977</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>17929</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>350519</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>103094</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>71717</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>181470</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>69540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27069,15 +27284,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>667870</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>8965</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>363070</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>8964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>129987</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>42900</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>62753</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -27105,16 +27320,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>649941</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>17930</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28816</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>112058</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>71718</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1479303</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>80427</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27141,16 +27356,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>614083</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>463861</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>35859</xdr:rowOff>
+      <xdr:rowOff>155603</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>531223</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>26510</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27177,16 +27392,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>452717</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>17929</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>169687</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>85421</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>71717</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>139208</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27213,16 +27428,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>667870</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>173659</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>25613</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>129987</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>8965</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>27661</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>85164</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27249,16 +27464,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>587189</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>161366</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>489218</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>104761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>49306</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>937580</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>35860</xdr:rowOff>
+      <xdr:rowOff>162135</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27285,16 +27500,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>461682</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>128578</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>138441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>542365</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>98612</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>187491</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>9349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27321,16 +27536,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>605117</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>363455</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>16521</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>67234</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>98612</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>430817</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>68132</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27357,16 +27572,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>596154</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>8964</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>441578</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>106936</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>58271</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>62752</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>508940</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>160724</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27393,16 +27608,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>470646</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>17929</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>126657</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>24460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>551329</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>71717</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>185570</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>78248</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27429,16 +27644,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>623048</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>107576</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>154963</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>7427</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>85165</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>161365</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>61216</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27783,10 +27998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2D9105-EE15-45BF-B336-88249D294A6D}">
-  <dimension ref="A1:Q164"/>
+  <dimension ref="A1:AD169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AD119" sqref="AD119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27796,8 +28011,9 @@
     <col min="4" max="4" width="13.5546875" customWidth="1"/>
     <col min="5" max="5" width="24.21875" customWidth="1"/>
     <col min="6" max="6" width="22.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1"/>
     <col min="13" max="13" width="8.88671875" customWidth="1"/>
     <col min="15" max="15" width="12.33203125" customWidth="1"/>
   </cols>
@@ -27810,13 +28026,16 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
-        <v>19</v>
+      <c r="J2" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.35">
@@ -27833,13 +28052,25 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
       </c>
       <c r="M3" s="2"/>
     </row>
@@ -27863,7 +28094,19 @@
         <v>1.35E-4</v>
       </c>
       <c r="G4">
+        <v>1.9900000000000001E-4</v>
+      </c>
+      <c r="H4">
         <v>0</v>
+      </c>
+      <c r="J4">
+        <v>60</v>
+      </c>
+      <c r="K4">
+        <v>37</v>
+      </c>
+      <c r="L4">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -27886,7 +28129,19 @@
         <v>1.8000000000000001E-4</v>
       </c>
       <c r="G5">
+        <v>6.6100000000000002E-4</v>
+      </c>
+      <c r="H5">
         <v>2</v>
+      </c>
+      <c r="J5">
+        <v>66</v>
+      </c>
+      <c r="K5">
+        <v>47</v>
+      </c>
+      <c r="L5">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -27909,7 +28164,19 @@
         <v>2.3900000000000001E-4</v>
       </c>
       <c r="G6">
+        <v>7.5600000000000005E-4</v>
+      </c>
+      <c r="H6">
         <v>4</v>
+      </c>
+      <c r="J6">
+        <v>72</v>
+      </c>
+      <c r="K6">
+        <v>55</v>
+      </c>
+      <c r="L6">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -27932,7 +28199,19 @@
         <v>2.5399999999999999E-4</v>
       </c>
       <c r="G7">
+        <v>8.8000000000000003E-4</v>
+      </c>
+      <c r="H7">
         <v>4</v>
+      </c>
+      <c r="J7">
+        <v>77</v>
+      </c>
+      <c r="K7">
+        <v>61</v>
+      </c>
+      <c r="L7">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -27955,7 +28234,19 @@
         <v>2.6699999999999998E-4</v>
       </c>
       <c r="G8">
+        <v>8.9599999999999999E-4</v>
+      </c>
+      <c r="H8">
         <v>6</v>
+      </c>
+      <c r="J8">
+        <v>84</v>
+      </c>
+      <c r="K8">
+        <v>69</v>
+      </c>
+      <c r="L8">
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -27978,7 +28269,19 @@
         <v>2.81E-4</v>
       </c>
       <c r="G9">
+        <v>9.9200000000000004E-4</v>
+      </c>
+      <c r="H9">
         <v>16</v>
+      </c>
+      <c r="J9">
+        <v>85</v>
+      </c>
+      <c r="K9">
+        <v>80</v>
+      </c>
+      <c r="L9">
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -28001,7 +28304,19 @@
         <v>2.8699999999999998E-4</v>
       </c>
       <c r="G10">
+        <v>1.1310000000000001E-3</v>
+      </c>
+      <c r="H10">
         <v>23</v>
+      </c>
+      <c r="J10">
+        <v>87</v>
+      </c>
+      <c r="K10">
+        <v>84</v>
+      </c>
+      <c r="L10">
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -28024,7 +28339,19 @@
         <v>2.9E-4</v>
       </c>
       <c r="G11">
+        <v>1.1789999999999999E-3</v>
+      </c>
+      <c r="H11">
         <v>25</v>
+      </c>
+      <c r="J11">
+        <v>88</v>
+      </c>
+      <c r="K11">
+        <v>86</v>
+      </c>
+      <c r="L11">
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -28047,7 +28374,19 @@
         <v>2.92E-4</v>
       </c>
       <c r="G12">
+        <v>1.199E-3</v>
+      </c>
+      <c r="H12">
         <v>33</v>
+      </c>
+      <c r="J12">
+        <v>89</v>
+      </c>
+      <c r="K12">
+        <v>86</v>
+      </c>
+      <c r="L12">
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -28070,7 +28409,19 @@
         <v>2.9500000000000001E-4</v>
       </c>
       <c r="G13">
+        <v>1.201E-3</v>
+      </c>
+      <c r="H13">
         <v>36</v>
+      </c>
+      <c r="J13">
+        <v>89</v>
+      </c>
+      <c r="K13">
+        <v>88</v>
+      </c>
+      <c r="L13">
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -28093,6 +28444,9 @@
         <v>2.9500000000000001E-4</v>
       </c>
       <c r="G14">
+        <v>1.201E-3</v>
+      </c>
+      <c r="H14">
         <v>36</v>
       </c>
     </row>
@@ -28116,412 +28470,26 @@
         <v>2.9500000000000001E-4</v>
       </c>
       <c r="G15">
+        <v>1.201E-3</v>
+      </c>
+      <c r="H15">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>40</v>
-      </c>
-      <c r="B16">
-        <v>1.27E-4</v>
-      </c>
-      <c r="C16">
-        <v>2.0699999999999999E-4</v>
-      </c>
-      <c r="D16">
-        <v>1.219E-3</v>
-      </c>
-      <c r="E16">
-        <v>2.9100000000000003E-4</v>
-      </c>
-      <c r="F16">
-        <v>2.9500000000000001E-4</v>
-      </c>
-      <c r="G16">
-        <v>36</v>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>50</v>
-      </c>
-      <c r="B17">
-        <v>1.27E-4</v>
-      </c>
-      <c r="C17">
-        <v>2.0699999999999999E-4</v>
-      </c>
-      <c r="D17">
-        <v>1.219E-3</v>
-      </c>
-      <c r="E17">
-        <v>2.9100000000000003E-4</v>
-      </c>
-      <c r="F17">
-        <v>2.9500000000000001E-4</v>
-      </c>
-      <c r="G17">
-        <v>36</v>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>60</v>
-      </c>
-      <c r="B18">
-        <v>1.27E-4</v>
-      </c>
-      <c r="C18">
-        <v>2.0699999999999999E-4</v>
-      </c>
-      <c r="D18">
-        <v>1.219E-3</v>
-      </c>
-      <c r="E18">
-        <v>2.9100000000000003E-4</v>
-      </c>
-      <c r="F18">
-        <v>2.9500000000000001E-4</v>
-      </c>
-      <c r="G18">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>70</v>
-      </c>
-      <c r="B19">
-        <v>1.27E-4</v>
-      </c>
-      <c r="C19">
-        <v>2.0699999999999999E-4</v>
-      </c>
-      <c r="D19">
-        <v>1.219E-3</v>
-      </c>
-      <c r="E19">
-        <v>2.9100000000000003E-4</v>
-      </c>
-      <c r="F19">
-        <v>2.9500000000000001E-4</v>
-      </c>
-      <c r="G19">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>80</v>
-      </c>
-      <c r="B20">
-        <v>1.27E-4</v>
-      </c>
-      <c r="C20">
-        <v>2.0699999999999999E-4</v>
-      </c>
-      <c r="D20">
-        <v>1.219E-3</v>
-      </c>
-      <c r="E20">
-        <v>2.9100000000000003E-4</v>
-      </c>
-      <c r="F20">
-        <v>2.9500000000000001E-4</v>
-      </c>
-      <c r="G20">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>90</v>
-      </c>
-      <c r="B21">
-        <v>1.27E-4</v>
-      </c>
-      <c r="C21">
-        <v>2.0699999999999999E-4</v>
-      </c>
-      <c r="D21">
-        <v>1.219E-3</v>
-      </c>
-      <c r="E21">
-        <v>2.9100000000000003E-4</v>
-      </c>
-      <c r="F21">
-        <v>2.9500000000000001E-4</v>
-      </c>
-      <c r="G21">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>100</v>
-      </c>
-      <c r="B22">
-        <v>1.27E-4</v>
-      </c>
-      <c r="C22">
-        <v>2.0699999999999999E-4</v>
-      </c>
-      <c r="D22">
-        <v>1.219E-3</v>
-      </c>
-      <c r="E22">
-        <v>2.9100000000000003E-4</v>
-      </c>
-      <c r="F22">
-        <v>2.9500000000000001E-4</v>
-      </c>
-      <c r="G22">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>110</v>
-      </c>
-      <c r="B23">
-        <v>1.27E-4</v>
-      </c>
-      <c r="C23">
-        <v>2.0699999999999999E-4</v>
-      </c>
-      <c r="D23">
-        <v>1.219E-3</v>
-      </c>
-      <c r="E23">
-        <v>2.9100000000000003E-4</v>
-      </c>
-      <c r="F23">
-        <v>2.9500000000000001E-4</v>
-      </c>
-      <c r="G23">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>120</v>
-      </c>
-      <c r="B24">
-        <v>1.27E-4</v>
-      </c>
-      <c r="C24">
-        <v>2.0699999999999999E-4</v>
-      </c>
-      <c r="D24">
-        <v>1.219E-3</v>
-      </c>
-      <c r="E24">
-        <v>2.9100000000000003E-4</v>
-      </c>
-      <c r="F24">
-        <v>2.9500000000000001E-4</v>
-      </c>
-      <c r="G24">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>130</v>
-      </c>
-      <c r="B25">
-        <v>1.27E-4</v>
-      </c>
-      <c r="C25">
-        <v>2.0699999999999999E-4</v>
-      </c>
-      <c r="D25">
-        <v>1.219E-3</v>
-      </c>
-      <c r="E25">
-        <v>2.9100000000000003E-4</v>
-      </c>
-      <c r="F25">
-        <v>2.9500000000000001E-4</v>
-      </c>
-      <c r="G25">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>140</v>
-      </c>
-      <c r="B26">
-        <v>1.27E-4</v>
-      </c>
-      <c r="C26">
-        <v>2.0699999999999999E-4</v>
-      </c>
-      <c r="D26">
-        <v>1.219E-3</v>
-      </c>
-      <c r="E26">
-        <v>2.9100000000000003E-4</v>
-      </c>
-      <c r="F26">
-        <v>2.9500000000000001E-4</v>
-      </c>
-      <c r="G26">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>150</v>
-      </c>
-      <c r="B27">
-        <v>1.27E-4</v>
-      </c>
-      <c r="C27">
-        <v>2.0699999999999999E-4</v>
-      </c>
-      <c r="D27">
-        <v>1.219E-3</v>
-      </c>
-      <c r="E27">
-        <v>2.9100000000000003E-4</v>
-      </c>
-      <c r="F27">
-        <v>2.9500000000000001E-4</v>
-      </c>
-      <c r="G27">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>160</v>
-      </c>
-      <c r="B28">
-        <v>1.27E-4</v>
-      </c>
-      <c r="C28">
-        <v>2.0699999999999999E-4</v>
-      </c>
-      <c r="D28">
-        <v>1.219E-3</v>
-      </c>
-      <c r="E28">
-        <v>2.9100000000000003E-4</v>
-      </c>
-      <c r="F28">
-        <v>2.9500000000000001E-4</v>
-      </c>
-      <c r="G28">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>170</v>
-      </c>
-      <c r="B29">
-        <v>1.27E-4</v>
-      </c>
-      <c r="C29">
-        <v>2.0699999999999999E-4</v>
-      </c>
-      <c r="D29">
-        <v>1.219E-3</v>
-      </c>
-      <c r="E29">
-        <v>2.9100000000000003E-4</v>
-      </c>
-      <c r="F29">
-        <v>2.9500000000000001E-4</v>
-      </c>
-      <c r="G29">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>180</v>
-      </c>
-      <c r="B30">
-        <v>1.27E-4</v>
-      </c>
-      <c r="C30">
-        <v>2.0699999999999999E-4</v>
-      </c>
-      <c r="D30">
-        <v>1.219E-3</v>
-      </c>
-      <c r="E30">
-        <v>2.9100000000000003E-4</v>
-      </c>
-      <c r="F30">
-        <v>2.9500000000000001E-4</v>
-      </c>
-      <c r="G30">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>190</v>
-      </c>
-      <c r="B31">
-        <v>1.27E-4</v>
-      </c>
-      <c r="C31">
-        <v>2.0699999999999999E-4</v>
-      </c>
-      <c r="D31">
-        <v>1.219E-3</v>
-      </c>
-      <c r="E31">
-        <v>2.9100000000000003E-4</v>
-      </c>
-      <c r="F31">
-        <v>2.9500000000000001E-4</v>
-      </c>
-      <c r="G31">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>200</v>
-      </c>
-      <c r="B32">
-        <v>1.27E-4</v>
-      </c>
-      <c r="C32">
-        <v>2.0699999999999999E-4</v>
-      </c>
-      <c r="D32">
-        <v>1.219E-3</v>
-      </c>
-      <c r="E32">
-        <v>2.9100000000000003E-4</v>
-      </c>
-      <c r="F32">
-        <v>2.9500000000000001E-4</v>
-      </c>
-      <c r="G32">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -28535,16 +28503,28 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G36" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="H36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1</v>
       </c>
@@ -28564,10 +28544,22 @@
         <v>7.4380000000000002E-3</v>
       </c>
       <c r="G37">
+        <v>2.3979E-2</v>
+      </c>
+      <c r="H37">
         <v>431</v>
       </c>
+      <c r="J37">
+        <v>2517</v>
+      </c>
+      <c r="K37">
+        <v>2193</v>
+      </c>
+      <c r="L37">
+        <v>2171</v>
+      </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2</v>
       </c>
@@ -28587,10 +28579,22 @@
         <v>7.894E-3</v>
       </c>
       <c r="G38">
+        <v>2.5727E-2</v>
+      </c>
+      <c r="H38">
         <v>934</v>
       </c>
+      <c r="J38">
+        <v>2569</v>
+      </c>
+      <c r="K38">
+        <v>2498</v>
+      </c>
+      <c r="L38">
+        <v>2491</v>
+      </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3</v>
       </c>
@@ -28610,10 +28614,22 @@
         <v>8.0750000000000006E-3</v>
       </c>
       <c r="G39">
+        <v>2.6068999999999998E-2</v>
+      </c>
+      <c r="H39">
         <v>1203</v>
       </c>
+      <c r="J39">
+        <v>2583</v>
+      </c>
+      <c r="K39">
+        <v>2534</v>
+      </c>
+      <c r="L39">
+        <v>2531</v>
+      </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>4</v>
       </c>
@@ -28633,10 +28649,22 @@
         <v>8.1620000000000009E-3</v>
       </c>
       <c r="G40">
+        <v>2.6367000000000002E-2</v>
+      </c>
+      <c r="H40">
         <v>1306</v>
       </c>
+      <c r="J40">
+        <v>2584</v>
+      </c>
+      <c r="K40">
+        <v>2571</v>
+      </c>
+      <c r="L40">
+        <v>2569</v>
+      </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>5</v>
       </c>
@@ -28656,10 +28684,22 @@
         <v>8.1849999999999996E-3</v>
       </c>
       <c r="G41">
+        <v>2.6384000000000001E-2</v>
+      </c>
+      <c r="H41">
         <v>1345</v>
       </c>
+      <c r="J41">
+        <v>2585</v>
+      </c>
+      <c r="K41">
+        <v>2583</v>
+      </c>
+      <c r="L41">
+        <v>2583</v>
+      </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>6</v>
       </c>
@@ -28679,10 +28719,22 @@
         <v>8.2070000000000008E-3</v>
       </c>
       <c r="G42">
+        <v>2.6495999999999999E-2</v>
+      </c>
+      <c r="H42">
         <v>1355</v>
       </c>
+      <c r="J42">
+        <v>2586</v>
+      </c>
+      <c r="K42">
+        <v>2583</v>
+      </c>
+      <c r="L42">
+        <v>2585</v>
+      </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>7</v>
       </c>
@@ -28702,10 +28754,22 @@
         <v>8.2209999999999991E-3</v>
       </c>
       <c r="G43">
+        <v>2.6501E-2</v>
+      </c>
+      <c r="H43">
         <v>1356</v>
       </c>
+      <c r="J43">
+        <v>2586</v>
+      </c>
+      <c r="K43">
+        <v>2585</v>
+      </c>
+      <c r="L43">
+        <v>2585</v>
+      </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>8</v>
       </c>
@@ -28725,10 +28789,13 @@
         <v>8.2209999999999991E-3</v>
       </c>
       <c r="G44">
+        <v>2.6501E-2</v>
+      </c>
+      <c r="H44">
         <v>1356</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>9</v>
       </c>
@@ -28748,10 +28815,13 @@
         <v>8.2209999999999991E-3</v>
       </c>
       <c r="G45">
+        <v>2.6501E-2</v>
+      </c>
+      <c r="H45">
         <v>1356</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>10</v>
       </c>
@@ -28771,10 +28841,13 @@
         <v>8.2209999999999991E-3</v>
       </c>
       <c r="G46">
+        <v>2.6501E-2</v>
+      </c>
+      <c r="H46">
         <v>1356</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>20</v>
       </c>
@@ -28794,10 +28867,13 @@
         <v>8.2209999999999991E-3</v>
       </c>
       <c r="G47">
+        <v>2.6501E-2</v>
+      </c>
+      <c r="H47">
         <v>1356</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>30</v>
       </c>
@@ -28817,839 +28893,588 @@
         <v>8.2209999999999991E-3</v>
       </c>
       <c r="G48">
+        <v>2.6501E-2</v>
+      </c>
+      <c r="H48">
         <v>1356</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49">
+    <row r="52" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G52" s="3"/>
+    </row>
+    <row r="58" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>11</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" t="s">
+        <v>24</v>
+      </c>
+      <c r="H71" t="s">
+        <v>14</v>
+      </c>
+      <c r="J71" t="s">
+        <v>20</v>
+      </c>
+      <c r="K71" t="s">
+        <v>21</v>
+      </c>
+      <c r="L71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>1.4581E-2</v>
+      </c>
+      <c r="C72">
+        <v>7.8960000000000002E-3</v>
+      </c>
+      <c r="D72">
+        <v>6.7409999999999998E-2</v>
+      </c>
+      <c r="E72">
+        <v>1.0880000000000001E-2</v>
+      </c>
+      <c r="F72">
+        <v>9.9249999999999998E-3</v>
+      </c>
+      <c r="G72">
+        <v>4.2560000000000001E-2</v>
+      </c>
+      <c r="H72">
+        <v>41</v>
+      </c>
+      <c r="J72">
+        <v>2535</v>
+      </c>
+      <c r="K72">
+        <v>1711</v>
+      </c>
+      <c r="L72">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73">
+        <v>1.4609E-2</v>
+      </c>
+      <c r="C73">
+        <v>8.1910000000000004E-3</v>
+      </c>
+      <c r="D73">
+        <v>7.0954000000000003E-2</v>
+      </c>
+      <c r="E73">
+        <v>1.1403E-2</v>
+      </c>
+      <c r="F73">
+        <v>1.0728E-2</v>
+      </c>
+      <c r="G73">
+        <v>5.1422000000000002E-2</v>
+      </c>
+      <c r="H73">
+        <v>72</v>
+      </c>
+      <c r="J73">
+        <v>2679</v>
+      </c>
+      <c r="K73">
+        <v>2241</v>
+      </c>
+      <c r="L73">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>3</v>
+      </c>
+      <c r="B74">
+        <v>1.4621E-2</v>
+      </c>
+      <c r="C74">
+        <v>8.4089999999999998E-3</v>
+      </c>
+      <c r="D74">
+        <v>7.2434999999999999E-2</v>
+      </c>
+      <c r="E74">
+        <v>1.1743E-2</v>
+      </c>
+      <c r="F74">
+        <v>1.1195E-2</v>
+      </c>
+      <c r="G74">
+        <v>5.7349999999999998E-2</v>
+      </c>
+      <c r="H74">
+        <v>103</v>
+      </c>
+      <c r="J74">
+        <v>2729</v>
+      </c>
+      <c r="K74">
+        <v>2475</v>
+      </c>
+      <c r="L74">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>4</v>
+      </c>
+      <c r="B75">
+        <v>1.4643E-2</v>
+      </c>
+      <c r="C75">
+        <v>8.7609999999999997E-3</v>
+      </c>
+      <c r="D75">
+        <v>7.3219999999999993E-2</v>
+      </c>
+      <c r="E75">
+        <v>1.2037000000000001E-2</v>
+      </c>
+      <c r="F75">
+        <v>1.2160000000000001E-2</v>
+      </c>
+      <c r="G75">
+        <v>6.3390000000000002E-2</v>
+      </c>
+      <c r="H75">
+        <v>150</v>
+      </c>
+      <c r="J75">
+        <v>2800</v>
+      </c>
+      <c r="K75">
+        <v>2618</v>
+      </c>
+      <c r="L75">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>5</v>
+      </c>
+      <c r="B76">
+        <v>1.4677000000000001E-2</v>
+      </c>
+      <c r="C76">
+        <v>9.1280000000000007E-3</v>
+      </c>
+      <c r="D76">
+        <v>7.4571999999999999E-2</v>
+      </c>
+      <c r="E76">
+        <v>1.2341E-2</v>
+      </c>
+      <c r="F76">
+        <v>1.2401000000000001E-2</v>
+      </c>
+      <c r="G76">
+        <v>7.1525000000000005E-2</v>
+      </c>
+      <c r="H76">
+        <v>199</v>
+      </c>
+      <c r="J76">
+        <v>2931</v>
+      </c>
+      <c r="K76">
+        <v>2683</v>
+      </c>
+      <c r="L76">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>6</v>
+      </c>
+      <c r="B77">
+        <v>1.4697999999999999E-2</v>
+      </c>
+      <c r="C77">
+        <v>9.3310000000000008E-3</v>
+      </c>
+      <c r="D77">
+        <v>7.5893000000000002E-2</v>
+      </c>
+      <c r="E77">
+        <v>1.2795000000000001E-2</v>
+      </c>
+      <c r="F77">
+        <v>1.2846E-2</v>
+      </c>
+      <c r="G77">
+        <v>7.3097999999999996E-2</v>
+      </c>
+      <c r="H77">
+        <v>244</v>
+      </c>
+      <c r="J77">
+        <v>3036</v>
+      </c>
+      <c r="K77">
+        <v>2797</v>
+      </c>
+      <c r="L77">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>7</v>
+      </c>
+      <c r="B78">
+        <v>1.4711E-2</v>
+      </c>
+      <c r="C78">
+        <v>9.8899999999999995E-3</v>
+      </c>
+      <c r="D78">
+        <v>7.8321000000000002E-2</v>
+      </c>
+      <c r="E78">
+        <v>1.3524E-2</v>
+      </c>
+      <c r="F78">
+        <v>1.3257E-2</v>
+      </c>
+      <c r="G78">
+        <v>7.4489E-2</v>
+      </c>
+      <c r="H78">
+        <v>282</v>
+      </c>
+      <c r="J78">
+        <v>3160</v>
+      </c>
+      <c r="K78">
+        <v>2908</v>
+      </c>
+      <c r="L78">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>8</v>
+      </c>
+      <c r="B79">
+        <v>1.4734000000000001E-2</v>
+      </c>
+      <c r="C79">
+        <v>1.0248E-2</v>
+      </c>
+      <c r="D79">
+        <v>8.2573999999999995E-2</v>
+      </c>
+      <c r="E79">
+        <v>1.4092E-2</v>
+      </c>
+      <c r="F79">
+        <v>1.3969000000000001E-2</v>
+      </c>
+      <c r="G79">
+        <v>7.5833999999999999E-2</v>
+      </c>
+      <c r="H79">
+        <v>324</v>
+      </c>
+      <c r="J79">
+        <v>3301</v>
+      </c>
+      <c r="K79">
+        <v>2960</v>
+      </c>
+      <c r="L79">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>9</v>
+      </c>
+      <c r="B80">
+        <v>1.4751999999999999E-2</v>
+      </c>
+      <c r="C80">
+        <v>1.064E-2</v>
+      </c>
+      <c r="D80">
+        <v>8.3109000000000002E-2</v>
+      </c>
+      <c r="E80">
+        <v>1.4726E-2</v>
+      </c>
+      <c r="F80">
+        <v>1.4506E-2</v>
+      </c>
+      <c r="G80">
+        <v>7.6369000000000006E-2</v>
+      </c>
+      <c r="H80">
+        <v>357</v>
+      </c>
+      <c r="J80">
+        <v>3470</v>
+      </c>
+      <c r="K80">
+        <v>3059</v>
+      </c>
+      <c r="L80">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>10</v>
+      </c>
+      <c r="B81">
+        <v>1.4777999999999999E-2</v>
+      </c>
+      <c r="C81">
+        <v>1.0924E-2</v>
+      </c>
+      <c r="D81">
+        <v>8.5671999999999998E-2</v>
+      </c>
+      <c r="E81">
+        <v>1.5287E-2</v>
+      </c>
+      <c r="F81">
+        <v>1.5054E-2</v>
+      </c>
+      <c r="G81">
+        <v>7.9059000000000004E-2</v>
+      </c>
+      <c r="H81">
+        <v>397</v>
+      </c>
+      <c r="J81">
+        <v>3635</v>
+      </c>
+      <c r="K81">
+        <v>3154</v>
+      </c>
+      <c r="L81">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>20</v>
+      </c>
+      <c r="B82">
+        <v>1.4801E-2</v>
+      </c>
+      <c r="C82">
+        <v>1.3809999999999999E-2</v>
+      </c>
+      <c r="D82">
+        <v>0.104737</v>
+      </c>
+      <c r="E82">
+        <v>1.8887000000000001E-2</v>
+      </c>
+      <c r="F82">
+        <v>1.8945E-2</v>
+      </c>
+      <c r="G82">
+        <v>9.6155000000000004E-2</v>
+      </c>
+      <c r="H82">
+        <v>717</v>
+      </c>
+      <c r="J82">
+        <v>4588</v>
+      </c>
+      <c r="K82">
+        <v>4066</v>
+      </c>
+      <c r="L82">
+        <v>3858</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>30</v>
+      </c>
+      <c r="B83">
+        <v>1.4817E-2</v>
+      </c>
+      <c r="C83">
+        <v>1.6063000000000001E-2</v>
+      </c>
+      <c r="D83">
+        <v>0.11648600000000001</v>
+      </c>
+      <c r="E83">
+        <v>2.1684999999999999E-2</v>
+      </c>
+      <c r="F83">
+        <v>2.1805999999999999E-2</v>
+      </c>
+      <c r="G83">
+        <v>0.11187</v>
+      </c>
+      <c r="H83">
+        <v>1104</v>
+      </c>
+      <c r="J83">
+        <v>5377</v>
+      </c>
+      <c r="K83">
+        <v>4861</v>
+      </c>
+      <c r="L83">
+        <v>4599</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84">
         <v>40</v>
       </c>
-      <c r="B49">
-        <v>3.8969999999999999E-3</v>
-      </c>
-      <c r="C49">
-        <v>5.6829999999999997E-3</v>
-      </c>
-      <c r="D49">
-        <v>2.8322E-2</v>
-      </c>
-      <c r="E49">
-        <v>8.201E-3</v>
-      </c>
-      <c r="F49">
-        <v>8.2209999999999991E-3</v>
-      </c>
-      <c r="G49">
-        <v>1356</v>
-      </c>
+      <c r="B84">
+        <v>1.4825E-2</v>
+      </c>
+      <c r="C84">
+        <v>1.7568E-2</v>
+      </c>
+      <c r="D84">
+        <v>0.12883700000000001</v>
+      </c>
+      <c r="F84" s="3"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85">
         <v>50</v>
       </c>
-      <c r="B50">
-        <v>3.8969999999999999E-3</v>
-      </c>
-      <c r="C50">
-        <v>5.6829999999999997E-3</v>
-      </c>
-      <c r="D50">
-        <v>2.8322E-2</v>
-      </c>
-      <c r="E50">
-        <v>8.201E-3</v>
-      </c>
-      <c r="F50">
-        <v>8.2209999999999991E-3</v>
-      </c>
-      <c r="G50">
-        <v>1356</v>
+      <c r="B85">
+        <v>1.4832E-2</v>
+      </c>
+      <c r="C85">
+        <v>1.8912999999999999E-2</v>
+      </c>
+      <c r="D85">
+        <v>0.13746800000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86">
         <v>60</v>
       </c>
-      <c r="B51">
-        <v>3.8969999999999999E-3</v>
-      </c>
-      <c r="C51">
-        <v>5.6829999999999997E-3</v>
-      </c>
-      <c r="D51">
-        <v>2.8322E-2</v>
-      </c>
-      <c r="E51">
-        <v>8.201E-3</v>
-      </c>
-      <c r="F51">
-        <v>8.2209999999999991E-3</v>
-      </c>
-      <c r="G51">
-        <v>1356</v>
+      <c r="B86">
+        <v>1.4841E-2</v>
+      </c>
+      <c r="C86">
+        <v>1.9959999999999999E-2</v>
+      </c>
+      <c r="D86">
+        <v>0.14207800000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87">
         <v>70</v>
       </c>
-      <c r="B52">
-        <v>3.8969999999999999E-3</v>
-      </c>
-      <c r="C52">
-        <v>5.6829999999999997E-3</v>
-      </c>
-      <c r="D52">
-        <v>2.8322E-2</v>
-      </c>
-      <c r="E52">
-        <v>8.201E-3</v>
-      </c>
-      <c r="F52">
-        <v>8.2209999999999991E-3</v>
-      </c>
-      <c r="G52">
-        <v>1356</v>
-      </c>
-      <c r="O52" s="3"/>
+      <c r="B87">
+        <v>1.4853E-2</v>
+      </c>
+      <c r="C87">
+        <v>2.0552000000000001E-2</v>
+      </c>
+      <c r="D87">
+        <v>0.14425199999999999</v>
+      </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88">
         <v>80</v>
       </c>
-      <c r="B53">
-        <v>3.8969999999999999E-3</v>
-      </c>
-      <c r="C53">
-        <v>5.6829999999999997E-3</v>
-      </c>
-      <c r="D53">
-        <v>2.8322E-2</v>
-      </c>
-      <c r="E53">
-        <v>8.201E-3</v>
-      </c>
-      <c r="F53">
-        <v>8.2209999999999991E-3</v>
-      </c>
-      <c r="G53">
-        <v>1356</v>
+      <c r="B88">
+        <v>1.4857E-2</v>
+      </c>
+      <c r="C88">
+        <v>2.0586E-2</v>
+      </c>
+      <c r="D88">
+        <v>0.14530000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89">
         <v>90</v>
       </c>
-      <c r="B54">
-        <v>3.8969999999999999E-3</v>
-      </c>
-      <c r="C54">
-        <v>5.6829999999999997E-3</v>
-      </c>
-      <c r="D54">
-        <v>2.8322E-2</v>
-      </c>
-      <c r="E54">
-        <v>8.201E-3</v>
-      </c>
-      <c r="F54">
-        <v>8.2209999999999991E-3</v>
-      </c>
-      <c r="G54">
-        <v>1356</v>
+      <c r="B89">
+        <v>1.4860999999999999E-2</v>
+      </c>
+      <c r="C89">
+        <v>2.0995E-2</v>
+      </c>
+      <c r="D89">
+        <v>0.147816</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90">
         <v>100</v>
       </c>
-      <c r="B55">
-        <v>3.8969999999999999E-3</v>
-      </c>
-      <c r="C55">
-        <v>5.6829999999999997E-3</v>
-      </c>
-      <c r="D55">
-        <v>2.8322E-2</v>
-      </c>
-      <c r="E55">
-        <v>8.201E-3</v>
-      </c>
-      <c r="F55">
-        <v>8.2209999999999991E-3</v>
-      </c>
-      <c r="G55">
-        <v>1356</v>
+      <c r="B90">
+        <v>1.4866000000000001E-2</v>
+      </c>
+      <c r="C90">
+        <v>2.1066000000000001E-2</v>
+      </c>
+      <c r="D90">
+        <v>0.148448</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91">
         <v>110</v>
-      </c>
-      <c r="B56">
-        <v>3.8969999999999999E-3</v>
-      </c>
-      <c r="C56">
-        <v>5.6829999999999997E-3</v>
-      </c>
-      <c r="D56">
-        <v>2.8322E-2</v>
-      </c>
-      <c r="E56">
-        <v>8.201E-3</v>
-      </c>
-      <c r="F56">
-        <v>8.2209999999999991E-3</v>
-      </c>
-      <c r="G56">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>120</v>
-      </c>
-      <c r="B57">
-        <v>3.8969999999999999E-3</v>
-      </c>
-      <c r="C57">
-        <v>5.6829999999999997E-3</v>
-      </c>
-      <c r="D57">
-        <v>2.8322E-2</v>
-      </c>
-      <c r="E57">
-        <v>8.201E-3</v>
-      </c>
-      <c r="F57">
-        <v>8.2209999999999991E-3</v>
-      </c>
-      <c r="G57">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>130</v>
-      </c>
-      <c r="B58">
-        <v>3.8969999999999999E-3</v>
-      </c>
-      <c r="C58">
-        <v>5.6829999999999997E-3</v>
-      </c>
-      <c r="D58">
-        <v>2.8322E-2</v>
-      </c>
-      <c r="E58">
-        <v>8.201E-3</v>
-      </c>
-      <c r="F58">
-        <v>8.2209999999999991E-3</v>
-      </c>
-      <c r="G58">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>140</v>
-      </c>
-      <c r="B59">
-        <v>3.8969999999999999E-3</v>
-      </c>
-      <c r="C59">
-        <v>5.6829999999999997E-3</v>
-      </c>
-      <c r="D59">
-        <v>2.8322E-2</v>
-      </c>
-      <c r="E59">
-        <v>8.201E-3</v>
-      </c>
-      <c r="F59">
-        <v>8.2209999999999991E-3</v>
-      </c>
-      <c r="G59">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>150</v>
-      </c>
-      <c r="B60">
-        <v>3.8969999999999999E-3</v>
-      </c>
-      <c r="C60">
-        <v>5.6829999999999997E-3</v>
-      </c>
-      <c r="D60">
-        <v>2.8322E-2</v>
-      </c>
-      <c r="E60">
-        <v>8.201E-3</v>
-      </c>
-      <c r="F60">
-        <v>8.2209999999999991E-3</v>
-      </c>
-      <c r="G60">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>160</v>
-      </c>
-      <c r="B61">
-        <v>3.8969999999999999E-3</v>
-      </c>
-      <c r="C61">
-        <v>5.6829999999999997E-3</v>
-      </c>
-      <c r="D61">
-        <v>2.8322E-2</v>
-      </c>
-      <c r="E61">
-        <v>8.201E-3</v>
-      </c>
-      <c r="F61">
-        <v>8.2209999999999991E-3</v>
-      </c>
-      <c r="G61">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>170</v>
-      </c>
-      <c r="B62">
-        <v>3.8969999999999999E-3</v>
-      </c>
-      <c r="C62">
-        <v>5.6829999999999997E-3</v>
-      </c>
-      <c r="D62">
-        <v>2.8322E-2</v>
-      </c>
-      <c r="E62">
-        <v>8.201E-3</v>
-      </c>
-      <c r="F62">
-        <v>8.2209999999999991E-3</v>
-      </c>
-      <c r="G62">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>180</v>
-      </c>
-      <c r="B63">
-        <v>3.8969999999999999E-3</v>
-      </c>
-      <c r="C63">
-        <v>5.6829999999999997E-3</v>
-      </c>
-      <c r="D63">
-        <v>2.8322E-2</v>
-      </c>
-      <c r="E63">
-        <v>8.201E-3</v>
-      </c>
-      <c r="F63">
-        <v>8.2209999999999991E-3</v>
-      </c>
-      <c r="G63">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>190</v>
-      </c>
-      <c r="B64">
-        <v>3.8969999999999999E-3</v>
-      </c>
-      <c r="C64">
-        <v>5.6829999999999997E-3</v>
-      </c>
-      <c r="D64">
-        <v>2.8322E-2</v>
-      </c>
-      <c r="E64">
-        <v>8.201E-3</v>
-      </c>
-      <c r="F64">
-        <v>8.2209999999999991E-3</v>
-      </c>
-      <c r="G64">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>200</v>
-      </c>
-      <c r="B65">
-        <v>3.8969999999999999E-3</v>
-      </c>
-      <c r="C65">
-        <v>5.6829999999999997E-3</v>
-      </c>
-      <c r="D65">
-        <v>2.8322E-2</v>
-      </c>
-      <c r="E65">
-        <v>8.201E-3</v>
-      </c>
-      <c r="F65">
-        <v>8.2209999999999991E-3</v>
-      </c>
-      <c r="G65">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" t="s">
-        <v>0</v>
-      </c>
-      <c r="D69" t="s">
-        <v>1</v>
-      </c>
-      <c r="E69" t="s">
-        <v>17</v>
-      </c>
-      <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>1</v>
-      </c>
-      <c r="B70">
-        <v>1.4581E-2</v>
-      </c>
-      <c r="C70">
-        <v>7.8960000000000002E-3</v>
-      </c>
-      <c r="D70">
-        <v>6.7409999999999998E-2</v>
-      </c>
-      <c r="E70">
-        <v>1.0880000000000001E-2</v>
-      </c>
-      <c r="F70">
-        <v>9.9249999999999998E-3</v>
-      </c>
-      <c r="G70">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>2</v>
-      </c>
-      <c r="B71">
-        <v>1.4609E-2</v>
-      </c>
-      <c r="C71">
-        <v>8.1910000000000004E-3</v>
-      </c>
-      <c r="D71">
-        <v>7.0954000000000003E-2</v>
-      </c>
-      <c r="E71">
-        <v>1.1403E-2</v>
-      </c>
-      <c r="F71">
-        <v>1.0728E-2</v>
-      </c>
-      <c r="G71">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>3</v>
-      </c>
-      <c r="B72">
-        <v>1.4621E-2</v>
-      </c>
-      <c r="C72">
-        <v>8.4089999999999998E-3</v>
-      </c>
-      <c r="D72">
-        <v>7.2434999999999999E-2</v>
-      </c>
-      <c r="E72">
-        <v>1.1743E-2</v>
-      </c>
-      <c r="F72">
-        <v>1.1195E-2</v>
-      </c>
-      <c r="G72">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>4</v>
-      </c>
-      <c r="B73">
-        <v>1.4643E-2</v>
-      </c>
-      <c r="C73">
-        <v>8.7609999999999997E-3</v>
-      </c>
-      <c r="D73">
-        <v>7.3219999999999993E-2</v>
-      </c>
-      <c r="E73">
-        <v>1.2037000000000001E-2</v>
-      </c>
-      <c r="F73">
-        <v>1.2160000000000001E-2</v>
-      </c>
-      <c r="G73">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>5</v>
-      </c>
-      <c r="B74">
-        <v>1.4677000000000001E-2</v>
-      </c>
-      <c r="C74">
-        <v>9.1280000000000007E-3</v>
-      </c>
-      <c r="D74">
-        <v>7.4571999999999999E-2</v>
-      </c>
-      <c r="E74">
-        <v>1.2341E-2</v>
-      </c>
-      <c r="F74">
-        <v>1.2401000000000001E-2</v>
-      </c>
-      <c r="G74">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>6</v>
-      </c>
-      <c r="B75">
-        <v>1.4697999999999999E-2</v>
-      </c>
-      <c r="C75">
-        <v>9.3310000000000008E-3</v>
-      </c>
-      <c r="D75">
-        <v>7.5893000000000002E-2</v>
-      </c>
-      <c r="E75">
-        <v>1.2795000000000001E-2</v>
-      </c>
-      <c r="F75">
-        <v>1.2846E-2</v>
-      </c>
-      <c r="G75">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>7</v>
-      </c>
-      <c r="B76">
-        <v>1.4711E-2</v>
-      </c>
-      <c r="C76">
-        <v>9.8899999999999995E-3</v>
-      </c>
-      <c r="D76">
-        <v>7.8321000000000002E-2</v>
-      </c>
-      <c r="E76">
-        <v>1.3524E-2</v>
-      </c>
-      <c r="F76">
-        <v>1.3257E-2</v>
-      </c>
-      <c r="G76">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>8</v>
-      </c>
-      <c r="B77">
-        <v>1.4734000000000001E-2</v>
-      </c>
-      <c r="C77">
-        <v>1.0248E-2</v>
-      </c>
-      <c r="D77">
-        <v>8.2573999999999995E-2</v>
-      </c>
-      <c r="E77">
-        <v>1.4092E-2</v>
-      </c>
-      <c r="F77">
-        <v>1.3969000000000001E-2</v>
-      </c>
-      <c r="G77">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>9</v>
-      </c>
-      <c r="B78">
-        <v>1.4751999999999999E-2</v>
-      </c>
-      <c r="C78">
-        <v>1.064E-2</v>
-      </c>
-      <c r="D78">
-        <v>8.3109000000000002E-2</v>
-      </c>
-      <c r="E78">
-        <v>1.4726E-2</v>
-      </c>
-      <c r="F78">
-        <v>1.4506E-2</v>
-      </c>
-      <c r="G78">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>10</v>
-      </c>
-      <c r="B79">
-        <v>1.4777999999999999E-2</v>
-      </c>
-      <c r="C79">
-        <v>1.0924E-2</v>
-      </c>
-      <c r="D79">
-        <v>8.5671999999999998E-2</v>
-      </c>
-      <c r="E79">
-        <v>1.5287E-2</v>
-      </c>
-      <c r="F79">
-        <v>1.5054E-2</v>
-      </c>
-      <c r="G79">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>20</v>
-      </c>
-      <c r="B80">
-        <v>1.4801E-2</v>
-      </c>
-      <c r="C80">
-        <v>1.3809999999999999E-2</v>
-      </c>
-      <c r="D80">
-        <v>0.104737</v>
-      </c>
-      <c r="E80">
-        <v>1.8887000000000001E-2</v>
-      </c>
-      <c r="F80">
-        <v>1.8945E-2</v>
-      </c>
-      <c r="G80">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>30</v>
-      </c>
-      <c r="B81">
-        <v>1.4817E-2</v>
-      </c>
-      <c r="C81">
-        <v>1.6063000000000001E-2</v>
-      </c>
-      <c r="D81">
-        <v>0.11648600000000001</v>
-      </c>
-      <c r="E81">
-        <v>2.1684999999999999E-2</v>
-      </c>
-      <c r="F81">
-        <v>2.1805999999999999E-2</v>
-      </c>
-      <c r="G81">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>40</v>
-      </c>
-      <c r="B82">
-        <v>1.4825E-2</v>
-      </c>
-      <c r="C82">
-        <v>1.7568E-2</v>
-      </c>
-      <c r="D82">
-        <v>0.12883700000000001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>50</v>
-      </c>
-      <c r="B83">
-        <v>1.4832E-2</v>
-      </c>
-      <c r="C83">
-        <v>1.8912999999999999E-2</v>
-      </c>
-      <c r="D83">
-        <v>0.13746800000000001</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>60</v>
-      </c>
-      <c r="B84">
-        <v>1.4841E-2</v>
-      </c>
-      <c r="C84">
-        <v>1.9959999999999999E-2</v>
-      </c>
-      <c r="D84">
-        <v>0.14207800000000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>70</v>
-      </c>
-      <c r="B85">
-        <v>1.4853E-2</v>
-      </c>
-      <c r="C85">
-        <v>2.0552000000000001E-2</v>
-      </c>
-      <c r="D85">
-        <v>0.14425199999999999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>80</v>
-      </c>
-      <c r="B86">
-        <v>1.4857E-2</v>
-      </c>
-      <c r="C86">
-        <v>2.0586E-2</v>
-      </c>
-      <c r="D86">
-        <v>0.14530000000000001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>90</v>
-      </c>
-      <c r="B87">
-        <v>1.4860999999999999E-2</v>
-      </c>
-      <c r="C87">
-        <v>2.0995E-2</v>
-      </c>
-      <c r="D87">
-        <v>0.147816</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>100</v>
-      </c>
-      <c r="B88">
-        <v>1.4866000000000001E-2</v>
-      </c>
-      <c r="C88">
-        <v>2.1066000000000001E-2</v>
-      </c>
-      <c r="D88">
-        <v>0.148448</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>110</v>
-      </c>
-      <c r="B89">
-        <v>1.4871000000000001E-2</v>
-      </c>
-      <c r="C89">
-        <v>2.1093000000000001E-2</v>
-      </c>
-      <c r="D89">
-        <v>0.148672</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>120</v>
-      </c>
-      <c r="B90">
-        <v>1.4871000000000001E-2</v>
-      </c>
-      <c r="C90">
-        <v>2.1093000000000001E-2</v>
-      </c>
-      <c r="D90">
-        <v>0.148672</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>130</v>
       </c>
       <c r="B91">
         <v>1.4871000000000001E-2</v>
@@ -29661,9 +29486,9 @@
         <v>0.148672</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="B92">
         <v>1.4871000000000001E-2</v>
@@ -29675,403 +29500,407 @@
         <v>0.148672</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>150</v>
-      </c>
-      <c r="B93">
-        <v>1.4871000000000001E-2</v>
-      </c>
-      <c r="C93">
-        <v>2.1093000000000001E-2</v>
-      </c>
-      <c r="D93">
-        <v>0.148672</v>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>160</v>
-      </c>
-      <c r="B94">
-        <v>1.4871000000000001E-2</v>
-      </c>
-      <c r="C94">
-        <v>2.1093000000000001E-2</v>
-      </c>
-      <c r="D94">
-        <v>0.148672</v>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>12</v>
+      </c>
+      <c r="J103" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>170</v>
-      </c>
-      <c r="B95">
-        <v>1.4871000000000001E-2</v>
-      </c>
-      <c r="C95">
-        <v>2.1093000000000001E-2</v>
-      </c>
-      <c r="D95">
-        <v>0.148672</v>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
+        <v>0</v>
+      </c>
+      <c r="D104" t="s">
+        <v>19</v>
+      </c>
+      <c r="E104" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" t="s">
+        <v>15</v>
+      </c>
+      <c r="G104" t="s">
+        <v>24</v>
+      </c>
+      <c r="H104" t="s">
+        <v>14</v>
+      </c>
+      <c r="J104" t="s">
+        <v>20</v>
+      </c>
+      <c r="K104" t="s">
+        <v>21</v>
+      </c>
+      <c r="L104" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>180</v>
-      </c>
-      <c r="B96">
-        <v>1.4871000000000001E-2</v>
-      </c>
-      <c r="C96">
-        <v>2.1093000000000001E-2</v>
-      </c>
-      <c r="D96">
-        <v>0.148672</v>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105">
+        <v>1.9671000000000001E-2</v>
+      </c>
+      <c r="C105">
+        <v>2.5904E-2</v>
+      </c>
+      <c r="D105">
+        <v>0.12166</v>
+      </c>
+      <c r="E105">
+        <v>3.4717999999999999E-2</v>
+      </c>
+      <c r="F105">
+        <v>3.4436000000000001E-2</v>
+      </c>
+      <c r="G105">
+        <v>0.10566</v>
+      </c>
+      <c r="H105">
+        <v>1120</v>
+      </c>
+      <c r="J105">
+        <v>10878</v>
+      </c>
+      <c r="K105">
+        <v>9122</v>
+      </c>
+      <c r="L105">
+        <v>9062</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>190</v>
-      </c>
-      <c r="B97">
-        <v>1.4871000000000001E-2</v>
-      </c>
-      <c r="C97">
-        <v>2.1093000000000001E-2</v>
-      </c>
-      <c r="D97">
-        <v>0.148672</v>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>2</v>
+      </c>
+      <c r="B106">
+        <v>1.9701E-2</v>
+      </c>
+      <c r="C106">
+        <v>2.6844E-2</v>
+      </c>
+      <c r="D106">
+        <v>0.128305</v>
+      </c>
+      <c r="E106">
+        <v>3.6871000000000001E-2</v>
+      </c>
+      <c r="F106">
+        <v>3.6979999999999999E-2</v>
+      </c>
+      <c r="G106">
+        <v>0.11726200000000001</v>
+      </c>
+      <c r="H106">
+        <v>2938</v>
+      </c>
+      <c r="J106">
+        <v>11192</v>
+      </c>
+      <c r="K106">
+        <v>10577</v>
+      </c>
+      <c r="L106">
+        <v>10474</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>200</v>
-      </c>
-      <c r="B98">
-        <v>1.4871000000000001E-2</v>
-      </c>
-      <c r="C98">
-        <v>2.1093000000000001E-2</v>
-      </c>
-      <c r="D98">
-        <v>0.148672</v>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>3</v>
+      </c>
+      <c r="B107">
+        <v>1.9732E-2</v>
+      </c>
+      <c r="C107">
+        <v>2.7196999999999999E-2</v>
+      </c>
+      <c r="D107">
+        <v>0.12920100000000001</v>
+      </c>
+      <c r="E107">
+        <v>3.7329000000000001E-2</v>
+      </c>
+      <c r="F107">
+        <v>3.8136999999999997E-2</v>
+      </c>
+      <c r="G107">
+        <v>0.122391</v>
+      </c>
+      <c r="H107">
+        <v>4212</v>
+      </c>
+      <c r="J107">
+        <v>11476</v>
+      </c>
+      <c r="K107">
+        <v>11201</v>
+      </c>
+      <c r="L107">
+        <v>11136</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" s="5" t="s">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>4</v>
+      </c>
+      <c r="B108">
+        <v>1.9771E-2</v>
+      </c>
+      <c r="C108">
+        <v>2.7699999999999999E-2</v>
+      </c>
+      <c r="D108">
+        <v>0.12958900000000001</v>
+      </c>
+      <c r="E108">
+        <v>3.8019999999999998E-2</v>
+      </c>
+      <c r="F108">
+        <v>3.8568999999999999E-2</v>
+      </c>
+      <c r="G108">
+        <v>0.12517</v>
+      </c>
+      <c r="H108">
+        <v>4933</v>
+      </c>
+      <c r="J108">
+        <v>11543</v>
+      </c>
+      <c r="K108">
+        <v>11436</v>
+      </c>
+      <c r="L108">
+        <v>11372</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>5</v>
+      </c>
+      <c r="B109">
+        <v>1.9799000000000001E-2</v>
+      </c>
+      <c r="C109">
+        <v>2.7986E-2</v>
+      </c>
+      <c r="D109">
+        <v>0.129771</v>
+      </c>
+      <c r="E109">
+        <v>3.8542E-2</v>
+      </c>
+      <c r="F109">
+        <v>3.8822000000000002E-2</v>
+      </c>
+      <c r="G109">
+        <v>0.125607</v>
+      </c>
+      <c r="H109">
+        <v>5313</v>
+      </c>
+      <c r="J109">
+        <v>11571</v>
+      </c>
+      <c r="K109">
+        <v>11537</v>
+      </c>
+      <c r="L109">
+        <v>11486</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>6</v>
+      </c>
+      <c r="B110">
+        <v>1.9831999999999999E-2</v>
+      </c>
+      <c r="C110">
+        <v>2.8056000000000001E-2</v>
+      </c>
+      <c r="D110">
+        <v>0.12984999999999999</v>
+      </c>
+      <c r="E110">
+        <v>3.8938E-2</v>
+      </c>
+      <c r="F110">
+        <v>3.9121000000000003E-2</v>
+      </c>
+      <c r="G110">
+        <v>0.12652099999999999</v>
+      </c>
+      <c r="H110">
+        <v>5500</v>
+      </c>
+      <c r="J110">
+        <v>11584</v>
+      </c>
+      <c r="K110">
+        <v>11576</v>
+      </c>
+      <c r="L110">
+        <v>11543</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>7</v>
+      </c>
+      <c r="B111">
+        <v>1.9886000000000001E-2</v>
+      </c>
+      <c r="C111">
+        <v>2.8176E-2</v>
+      </c>
+      <c r="D111">
+        <v>0.13003000000000001</v>
+      </c>
+      <c r="E111">
+        <v>3.9091000000000001E-2</v>
+      </c>
+      <c r="F111">
+        <v>3.9260000000000003E-2</v>
+      </c>
+      <c r="G111">
+        <v>0.12692800000000001</v>
+      </c>
+      <c r="H111">
+        <v>5617</v>
+      </c>
+      <c r="J111">
+        <v>11586</v>
+      </c>
+      <c r="K111">
+        <v>11592</v>
+      </c>
+      <c r="L111">
+        <v>11570</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A112">
         <v>8</v>
       </c>
+      <c r="B112">
+        <v>1.9911000000000002E-2</v>
+      </c>
+      <c r="C112">
+        <v>2.8197E-2</v>
+      </c>
+      <c r="D112">
+        <v>0.13015599999999999</v>
+      </c>
+      <c r="E112">
+        <v>3.9113000000000002E-2</v>
+      </c>
+      <c r="F112">
+        <v>3.9357000000000003E-2</v>
+      </c>
+      <c r="G112">
+        <v>0.12610499999999999</v>
+      </c>
+      <c r="H112">
+        <v>5649</v>
+      </c>
+      <c r="J112">
+        <v>11588</v>
+      </c>
+      <c r="K112">
+        <v>11593</v>
+      </c>
+      <c r="L112">
+        <v>11573</v>
+      </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>13</v>
+    <row r="113" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>9</v>
+      </c>
+      <c r="B113">
+        <v>1.9931999999999998E-2</v>
+      </c>
+      <c r="C113">
+        <v>2.8211E-2</v>
+      </c>
+      <c r="D113">
+        <v>0.13079299999999999</v>
+      </c>
+      <c r="E113">
+        <v>3.9176999999999997E-2</v>
+      </c>
+      <c r="F113">
+        <v>3.9400999999999999E-2</v>
+      </c>
+      <c r="G113">
+        <v>0.126194</v>
+      </c>
+      <c r="H113">
+        <v>5671</v>
+      </c>
+      <c r="J113">
+        <v>11589</v>
+      </c>
+      <c r="K113">
+        <v>11594</v>
+      </c>
+      <c r="L113">
+        <v>11582</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>2</v>
-      </c>
-      <c r="B102" t="s">
-        <v>3</v>
-      </c>
-      <c r="C102" t="s">
-        <v>0</v>
-      </c>
-      <c r="D102" t="s">
-        <v>1</v>
-      </c>
-      <c r="E102" t="s">
-        <v>17</v>
-      </c>
-      <c r="F102" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" t="s">
-        <v>15</v>
+    <row r="114" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>10</v>
+      </c>
+      <c r="B114">
+        <v>1.9976000000000001E-2</v>
+      </c>
+      <c r="C114">
+        <v>2.8233999999999999E-2</v>
+      </c>
+      <c r="D114">
+        <v>0.13100999999999999</v>
+      </c>
+      <c r="E114">
+        <v>3.9301000000000003E-2</v>
+      </c>
+      <c r="F114">
+        <v>3.9461000000000003E-2</v>
+      </c>
+      <c r="G114">
+        <v>0.126195</v>
+      </c>
+      <c r="H114">
+        <v>5684</v>
+      </c>
+      <c r="J114">
+        <v>11591</v>
+      </c>
+      <c r="K114">
+        <v>11595</v>
+      </c>
+      <c r="L114">
+        <v>11583</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103">
-        <v>1</v>
-      </c>
-      <c r="B103">
-        <v>1.9671000000000001E-2</v>
-      </c>
-      <c r="C103">
-        <v>2.5904E-2</v>
-      </c>
-      <c r="D103">
-        <v>0.12166</v>
-      </c>
-      <c r="E103">
-        <v>3.4717999999999999E-2</v>
-      </c>
-      <c r="F103">
-        <v>3.4436000000000001E-2</v>
-      </c>
-      <c r="G103">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104">
-        <v>2</v>
-      </c>
-      <c r="B104">
-        <v>1.9701E-2</v>
-      </c>
-      <c r="C104">
-        <v>2.6844E-2</v>
-      </c>
-      <c r="D104">
-        <v>0.128305</v>
-      </c>
-      <c r="E104">
-        <v>3.6871000000000001E-2</v>
-      </c>
-      <c r="F104">
-        <v>3.6979999999999999E-2</v>
-      </c>
-      <c r="G104">
-        <v>2938</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105">
-        <v>3</v>
-      </c>
-      <c r="B105">
-        <v>1.9732E-2</v>
-      </c>
-      <c r="C105">
-        <v>2.7196999999999999E-2</v>
-      </c>
-      <c r="D105">
-        <v>0.12920100000000001</v>
-      </c>
-      <c r="E105">
-        <v>3.7329000000000001E-2</v>
-      </c>
-      <c r="F105">
-        <v>3.8136999999999997E-2</v>
-      </c>
-      <c r="G105">
-        <v>4212</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106">
-        <v>4</v>
-      </c>
-      <c r="B106">
-        <v>1.9771E-2</v>
-      </c>
-      <c r="C106">
-        <v>2.7699999999999999E-2</v>
-      </c>
-      <c r="D106">
-        <v>0.12958900000000001</v>
-      </c>
-      <c r="E106">
-        <v>3.8019999999999998E-2</v>
-      </c>
-      <c r="F106">
-        <v>3.8568999999999999E-2</v>
-      </c>
-      <c r="G106">
-        <v>4933</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107">
-        <v>5</v>
-      </c>
-      <c r="B107">
-        <v>1.9799000000000001E-2</v>
-      </c>
-      <c r="C107">
-        <v>2.7986E-2</v>
-      </c>
-      <c r="D107">
-        <v>0.129771</v>
-      </c>
-      <c r="E107">
-        <v>3.8542E-2</v>
-      </c>
-      <c r="F107">
-        <v>3.8822000000000002E-2</v>
-      </c>
-      <c r="G107">
-        <v>5313</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108">
-        <v>6</v>
-      </c>
-      <c r="B108">
-        <v>1.9831999999999999E-2</v>
-      </c>
-      <c r="C108">
-        <v>2.8056000000000001E-2</v>
-      </c>
-      <c r="D108">
-        <v>0.12984999999999999</v>
-      </c>
-      <c r="E108">
-        <v>3.8938E-2</v>
-      </c>
-      <c r="F108">
-        <v>3.9121000000000003E-2</v>
-      </c>
-      <c r="G108">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109">
-        <v>7</v>
-      </c>
-      <c r="B109">
-        <v>1.9886000000000001E-2</v>
-      </c>
-      <c r="C109">
-        <v>2.8176E-2</v>
-      </c>
-      <c r="D109">
-        <v>0.13003000000000001</v>
-      </c>
-      <c r="E109">
-        <v>3.9091000000000001E-2</v>
-      </c>
-      <c r="F109">
-        <v>3.9260000000000003E-2</v>
-      </c>
-      <c r="G109">
-        <v>5617</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110">
-        <v>8</v>
-      </c>
-      <c r="B110">
-        <v>1.9911000000000002E-2</v>
-      </c>
-      <c r="C110">
-        <v>2.8197E-2</v>
-      </c>
-      <c r="D110">
-        <v>0.13015599999999999</v>
-      </c>
-      <c r="E110">
-        <v>3.9113000000000002E-2</v>
-      </c>
-      <c r="F110">
-        <v>3.9357000000000003E-2</v>
-      </c>
-      <c r="G110">
-        <v>5649</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111">
-        <v>9</v>
-      </c>
-      <c r="B111">
-        <v>1.9931999999999998E-2</v>
-      </c>
-      <c r="C111">
-        <v>2.8211E-2</v>
-      </c>
-      <c r="D111">
-        <v>0.13079299999999999</v>
-      </c>
-      <c r="E111">
-        <v>3.9176999999999997E-2</v>
-      </c>
-      <c r="F111">
-        <v>3.9400999999999999E-2</v>
-      </c>
-      <c r="G111">
-        <v>5671</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112">
-        <v>10</v>
-      </c>
-      <c r="B112">
-        <v>1.9976000000000001E-2</v>
-      </c>
-      <c r="C112">
-        <v>2.8233999999999999E-2</v>
-      </c>
-      <c r="D112">
-        <v>0.13100999999999999</v>
-      </c>
-      <c r="E112">
-        <v>3.9301000000000003E-2</v>
-      </c>
-      <c r="F112">
-        <v>3.9461000000000003E-2</v>
-      </c>
-      <c r="G112">
-        <v>5684</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A113">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A115">
         <v>20</v>
-      </c>
-      <c r="B113">
-        <v>2.0015999999999999E-2</v>
-      </c>
-      <c r="C113">
-        <v>2.8239E-2</v>
-      </c>
-      <c r="D113">
-        <v>0.13186999999999999</v>
-      </c>
-      <c r="E113">
-        <v>3.9357999999999997E-2</v>
-      </c>
-      <c r="F113">
-        <v>3.9501000000000001E-2</v>
-      </c>
-      <c r="G113">
-        <v>5687</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A114">
-        <v>30</v>
-      </c>
-      <c r="B114">
-        <v>2.0015999999999999E-2</v>
-      </c>
-      <c r="C114">
-        <v>2.8239E-2</v>
-      </c>
-      <c r="D114">
-        <v>0.13186999999999999</v>
-      </c>
-      <c r="E114">
-        <v>3.9357999999999997E-2</v>
-      </c>
-      <c r="F114">
-        <v>3.9501000000000001E-2</v>
-      </c>
-      <c r="G114">
-        <v>5687</v>
-      </c>
-      <c r="J114" s="3"/>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A115">
-        <v>40</v>
       </c>
       <c r="B115">
         <v>2.0015999999999999E-2</v>
@@ -30089,12 +29918,24 @@
         <v>3.9501000000000001E-2</v>
       </c>
       <c r="G115">
+        <v>0.12620899999999999</v>
+      </c>
+      <c r="H115">
         <v>5687</v>
       </c>
+      <c r="J115">
+        <v>11592</v>
+      </c>
+      <c r="K115">
+        <v>11595</v>
+      </c>
+      <c r="L115">
+        <v>11583</v>
+      </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B116">
         <v>2.0015999999999999E-2</v>
@@ -30112,838 +29953,679 @@
         <v>3.9501000000000001E-2</v>
       </c>
       <c r="G116">
+        <v>0.12620899999999999</v>
+      </c>
+      <c r="H116">
         <v>5687</v>
       </c>
+      <c r="K116" s="3"/>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A117">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AD119" s="3"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I130" s="3"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A138" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>13</v>
+      </c>
+      <c r="J139" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>2</v>
+      </c>
+      <c r="B140" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" t="s">
+        <v>0</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1</v>
+      </c>
+      <c r="E140" t="s">
+        <v>16</v>
+      </c>
+      <c r="F140" t="s">
+        <v>15</v>
+      </c>
+      <c r="G140" t="s">
+        <v>24</v>
+      </c>
+      <c r="H140" t="s">
+        <v>14</v>
+      </c>
+      <c r="J140" t="s">
+        <v>20</v>
+      </c>
+      <c r="K140" t="s">
+        <v>21</v>
+      </c>
+      <c r="L140" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>1</v>
+      </c>
+      <c r="B141">
+        <v>3.1513849999999999</v>
+      </c>
+      <c r="C141">
+        <v>0.79215400000000002</v>
+      </c>
+      <c r="D141">
+        <v>5.3123500000000003</v>
+      </c>
+      <c r="E141">
+        <v>0.995278</v>
+      </c>
+      <c r="F141">
+        <v>0.85429299999999997</v>
+      </c>
+      <c r="G141">
+        <v>4.0485189999999998</v>
+      </c>
+      <c r="H141">
+        <v>4361</v>
+      </c>
+      <c r="J141">
+        <v>171160</v>
+      </c>
+      <c r="K141">
+        <v>104703</v>
+      </c>
+      <c r="L141">
+        <v>93019</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>2</v>
+      </c>
+      <c r="B142">
+        <v>3.1530119999999999</v>
+      </c>
+      <c r="C142">
+        <v>0.85690100000000002</v>
+      </c>
+      <c r="D142">
+        <v>6.3695190000000004</v>
+      </c>
+      <c r="E142">
+        <v>1.097296</v>
+      </c>
+      <c r="F142">
+        <v>1.0367999999999999</v>
+      </c>
+      <c r="G142">
+        <v>4.6626700000000003</v>
+      </c>
+      <c r="H142">
+        <v>8506</v>
+      </c>
+      <c r="J142">
+        <v>185917</v>
+      </c>
+      <c r="K142">
+        <v>133792</v>
+      </c>
+      <c r="L142">
+        <v>113464</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>3</v>
+      </c>
+      <c r="B143">
+        <v>3.1580919999999999</v>
+      </c>
+      <c r="C143">
+        <v>0.88986900000000002</v>
+      </c>
+      <c r="D143">
+        <v>7.2284990000000002</v>
+      </c>
+      <c r="E143">
+        <v>1.1588229999999999</v>
+      </c>
+      <c r="F143">
+        <v>1.1186389999999999</v>
+      </c>
+      <c r="G143">
+        <v>5.7551410000000001</v>
+      </c>
+      <c r="H143">
+        <v>12312</v>
+      </c>
+      <c r="J143">
+        <v>193363</v>
+      </c>
+      <c r="K143">
+        <v>155394</v>
+      </c>
+      <c r="L143">
+        <v>131297</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>4</v>
+      </c>
+      <c r="B144">
+        <v>3.1609099999999999</v>
+      </c>
+      <c r="C144">
+        <v>0.91668799999999995</v>
+      </c>
+      <c r="D144">
+        <v>7.9970540000000003</v>
+      </c>
+      <c r="E144">
+        <v>1.1961550000000001</v>
+      </c>
+      <c r="F144">
+        <v>1.171038</v>
+      </c>
+      <c r="G144">
+        <v>6.2161059999999999</v>
+      </c>
+      <c r="H144">
+        <v>15917</v>
+      </c>
+      <c r="J144">
+        <v>198614</v>
+      </c>
+      <c r="K144">
+        <v>170891</v>
+      </c>
+      <c r="L144">
+        <v>146085</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>5</v>
+      </c>
+      <c r="B145">
+        <v>3.1611889999999998</v>
+      </c>
+      <c r="C145">
+        <v>0.942527</v>
+      </c>
+      <c r="D145">
+        <v>8.4478430000000007</v>
+      </c>
+      <c r="E145">
+        <v>1.2302900000000001</v>
+      </c>
+      <c r="F145">
+        <v>1.226712</v>
+      </c>
+      <c r="G145">
+        <v>6.7022599999999999</v>
+      </c>
+      <c r="H145">
+        <v>19256</v>
+      </c>
+      <c r="J145">
+        <v>203151</v>
+      </c>
+      <c r="K145">
+        <v>182256</v>
+      </c>
+      <c r="L145">
+        <v>158269</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>6</v>
+      </c>
+      <c r="B146">
+        <v>3.1622319999999999</v>
+      </c>
+      <c r="C146">
+        <v>0.98417699999999997</v>
+      </c>
+      <c r="D146">
+        <v>8.901484</v>
+      </c>
+      <c r="E146">
+        <v>1.2584789999999999</v>
+      </c>
+      <c r="F146">
+        <v>1.257285</v>
+      </c>
+      <c r="G146">
+        <v>7.064546</v>
+      </c>
+      <c r="H146">
+        <v>22410</v>
+      </c>
+      <c r="J146">
+        <v>207746</v>
+      </c>
+      <c r="K146">
+        <v>189128</v>
+      </c>
+      <c r="L146">
+        <v>169071</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>7</v>
+      </c>
+      <c r="B147">
+        <v>3.1643620000000001</v>
+      </c>
+      <c r="C147">
+        <v>1.036203</v>
+      </c>
+      <c r="D147">
+        <v>9.2353930000000002</v>
+      </c>
+      <c r="E147">
+        <v>1.284389</v>
+      </c>
+      <c r="F147">
+        <v>1.27705</v>
+      </c>
+      <c r="G147">
+        <v>7.3599670000000001</v>
+      </c>
+      <c r="H147">
+        <v>25462</v>
+      </c>
+      <c r="J147">
+        <v>212167</v>
+      </c>
+      <c r="K147">
+        <v>196630</v>
+      </c>
+      <c r="L147">
+        <v>177669</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>8</v>
+      </c>
+      <c r="B148">
+        <v>3.1670189999999998</v>
+      </c>
+      <c r="C148">
+        <v>1.0666709999999999</v>
+      </c>
+      <c r="D148">
+        <v>9.7273019999999999</v>
+      </c>
+      <c r="E148">
+        <v>1.332352</v>
+      </c>
+      <c r="F148">
+        <v>1.3132969999999999</v>
+      </c>
+      <c r="G148">
+        <v>7.638719</v>
+      </c>
+      <c r="H148">
+        <v>28497</v>
+      </c>
+      <c r="J148">
+        <v>216155</v>
+      </c>
+      <c r="K148">
+        <v>202528</v>
+      </c>
+      <c r="L148">
+        <v>184627</v>
+      </c>
+      <c r="P148" s="3"/>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>9</v>
+      </c>
+      <c r="B149">
+        <v>3.1699299999999999</v>
+      </c>
+      <c r="C149">
+        <v>1.089618</v>
+      </c>
+      <c r="D149">
+        <v>10.040746</v>
+      </c>
+      <c r="E149">
+        <v>1.355302</v>
+      </c>
+      <c r="F149">
+        <v>1.3572029999999999</v>
+      </c>
+      <c r="G149">
+        <v>7.9520119999999999</v>
+      </c>
+      <c r="H149">
+        <v>31244</v>
+      </c>
+      <c r="J149">
+        <v>220222</v>
+      </c>
+      <c r="K149">
+        <v>207495</v>
+      </c>
+      <c r="L149">
+        <v>190709</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>10</v>
+      </c>
+      <c r="B150">
+        <v>3.172485</v>
+      </c>
+      <c r="C150">
+        <v>1.102438</v>
+      </c>
+      <c r="D150">
+        <v>10.382071</v>
+      </c>
+      <c r="E150">
+        <v>1.372296</v>
+      </c>
+      <c r="F150">
+        <v>1.3852599999999999</v>
+      </c>
+      <c r="G150">
+        <v>8.3285029999999995</v>
+      </c>
+      <c r="H150">
+        <v>33900</v>
+      </c>
+      <c r="J150">
+        <v>224231</v>
+      </c>
+      <c r="K150">
+        <v>212102</v>
+      </c>
+      <c r="L150">
+        <v>195855</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>20</v>
+      </c>
+      <c r="B151">
+        <v>3.173403</v>
+      </c>
+      <c r="C151">
+        <v>1.3097000000000001</v>
+      </c>
+      <c r="D151">
+        <v>14.281852000000001</v>
+      </c>
+      <c r="E151">
+        <v>1.6870099999999999</v>
+      </c>
+      <c r="F151">
+        <v>1.7647649999999999</v>
+      </c>
+      <c r="G151">
+        <v>11.134116000000001</v>
+      </c>
+      <c r="H151">
+        <v>54813</v>
+      </c>
+      <c r="J151">
+        <v>258459</v>
+      </c>
+      <c r="K151">
+        <v>248232</v>
+      </c>
+      <c r="L151">
+        <v>234783</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>30</v>
+      </c>
+      <c r="B152">
+        <v>3.1745670000000001</v>
+      </c>
+      <c r="C152">
+        <v>1.5421039999999999</v>
+      </c>
+      <c r="D152">
+        <v>18.370843000000001</v>
+      </c>
+      <c r="E152">
+        <v>1.9446589999999999</v>
+      </c>
+      <c r="F152">
+        <v>1.977703</v>
+      </c>
+      <c r="G152">
+        <v>13.89859</v>
+      </c>
+      <c r="H152">
+        <v>68074</v>
+      </c>
+      <c r="J152">
+        <v>286889</v>
+      </c>
+      <c r="K152">
+        <v>2770151</v>
+      </c>
+      <c r="L152">
+        <v>261369</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>40</v>
+      </c>
+      <c r="B153">
+        <v>3.1751309999999999</v>
+      </c>
+      <c r="C153">
+        <v>1.7181759999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>50</v>
+      </c>
+      <c r="B154">
+        <v>3.1772830000000001</v>
+      </c>
+      <c r="C154">
+        <v>2.0689829999999998</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A155">
         <v>60</v>
       </c>
-      <c r="B117">
-        <v>2.0015999999999999E-2</v>
-      </c>
-      <c r="C117">
-        <v>2.8239E-2</v>
-      </c>
-      <c r="D117">
-        <v>0.13186999999999999</v>
-      </c>
-      <c r="E117">
-        <v>3.9357999999999997E-2</v>
-      </c>
-      <c r="F117">
-        <v>3.9501000000000001E-2</v>
-      </c>
-      <c r="G117">
-        <v>5687</v>
-      </c>
+      <c r="B155">
+        <v>3.1794449999999999</v>
+      </c>
+      <c r="C155">
+        <v>2.5086889999999999</v>
+      </c>
+      <c r="L155" s="3"/>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A118">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A156">
         <v>70</v>
       </c>
-      <c r="B118">
-        <v>2.0015999999999999E-2</v>
-      </c>
-      <c r="C118">
-        <v>2.8239E-2</v>
-      </c>
-      <c r="D118">
-        <v>0.13186999999999999</v>
-      </c>
-      <c r="E118">
-        <v>3.9357999999999997E-2</v>
-      </c>
-      <c r="F118">
-        <v>3.9501000000000001E-2</v>
-      </c>
-      <c r="G118">
-        <v>5687</v>
+      <c r="B156">
+        <v>3.1800090000000001</v>
+      </c>
+      <c r="C156">
+        <v>2.788694</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A119">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A157">
         <v>80</v>
       </c>
-      <c r="B119">
-        <v>2.0015999999999999E-2</v>
-      </c>
-      <c r="C119">
-        <v>2.8239E-2</v>
-      </c>
-      <c r="D119">
-        <v>0.13186999999999999</v>
-      </c>
-      <c r="E119">
-        <v>3.9357999999999997E-2</v>
-      </c>
-      <c r="F119">
-        <v>3.9501000000000001E-2</v>
-      </c>
-      <c r="G119">
-        <v>5687</v>
+      <c r="B157">
+        <v>3.1810450000000001</v>
+      </c>
+      <c r="C157">
+        <v>3.4072559999999998</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A120">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A158">
         <v>90</v>
       </c>
-      <c r="B120">
-        <v>2.0015999999999999E-2</v>
-      </c>
-      <c r="C120">
-        <v>2.8239E-2</v>
-      </c>
-      <c r="D120">
-        <v>0.13186999999999999</v>
-      </c>
-      <c r="E120">
-        <v>3.9357999999999997E-2</v>
-      </c>
-      <c r="F120">
-        <v>3.9501000000000001E-2</v>
-      </c>
-      <c r="G120">
-        <v>5687</v>
+      <c r="B158">
+        <v>3.1811340000000001</v>
+      </c>
+      <c r="C158">
+        <v>4.0145900000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A121">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A159">
         <v>100</v>
       </c>
-      <c r="B121">
-        <v>2.0015999999999999E-2</v>
-      </c>
-      <c r="C121">
-        <v>2.8239E-2</v>
-      </c>
-      <c r="D121">
-        <v>0.13186999999999999</v>
-      </c>
-      <c r="E121">
-        <v>3.9357999999999997E-2</v>
-      </c>
-      <c r="F121">
-        <v>3.9501000000000001E-2</v>
-      </c>
-      <c r="G121">
-        <v>5687</v>
+      <c r="B159">
+        <v>3.1822089999999998</v>
+      </c>
+      <c r="C159">
+        <v>4.7593319999999997</v>
+      </c>
+      <c r="D159">
+        <v>53.237139999999997</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A122">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A160">
         <v>110</v>
       </c>
-      <c r="B122">
-        <v>2.0015999999999999E-2</v>
-      </c>
-      <c r="C122">
-        <v>2.8239E-2</v>
-      </c>
-      <c r="D122">
-        <v>0.13186999999999999</v>
-      </c>
-      <c r="E122">
-        <v>3.9357999999999997E-2</v>
-      </c>
-      <c r="F122">
-        <v>3.9501000000000001E-2</v>
-      </c>
-      <c r="G122">
-        <v>5687</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A123">
-        <v>120</v>
-      </c>
-      <c r="B123">
-        <v>2.0015999999999999E-2</v>
-      </c>
-      <c r="C123">
-        <v>2.8239E-2</v>
-      </c>
-      <c r="D123">
-        <v>0.13186999999999999</v>
-      </c>
-      <c r="E123">
-        <v>3.9357999999999997E-2</v>
-      </c>
-      <c r="F123">
-        <v>3.9501000000000001E-2</v>
-      </c>
-      <c r="G123">
-        <v>5687</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A124">
-        <v>130</v>
-      </c>
-      <c r="B124">
-        <v>2.0015999999999999E-2</v>
-      </c>
-      <c r="C124">
-        <v>2.8239E-2</v>
-      </c>
-      <c r="D124">
-        <v>0.13186999999999999</v>
-      </c>
-      <c r="E124">
-        <v>3.9357999999999997E-2</v>
-      </c>
-      <c r="F124">
-        <v>3.9501000000000001E-2</v>
-      </c>
-      <c r="G124">
-        <v>5687</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A125">
-        <v>140</v>
-      </c>
-      <c r="B125">
-        <v>2.0015999999999999E-2</v>
-      </c>
-      <c r="C125">
-        <v>2.8239E-2</v>
-      </c>
-      <c r="D125">
-        <v>0.13186999999999999</v>
-      </c>
-      <c r="E125">
-        <v>3.9357999999999997E-2</v>
-      </c>
-      <c r="F125">
-        <v>3.9501000000000001E-2</v>
-      </c>
-      <c r="G125">
-        <v>5687</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A126">
-        <v>150</v>
-      </c>
-      <c r="B126">
-        <v>2.0015999999999999E-2</v>
-      </c>
-      <c r="C126">
-        <v>2.8239E-2</v>
-      </c>
-      <c r="D126">
-        <v>0.13186999999999999</v>
-      </c>
-      <c r="E126">
-        <v>3.9357999999999997E-2</v>
-      </c>
-      <c r="F126">
-        <v>3.9501000000000001E-2</v>
-      </c>
-      <c r="G126">
-        <v>5687</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A127">
-        <v>160</v>
-      </c>
-      <c r="B127">
-        <v>2.0015999999999999E-2</v>
-      </c>
-      <c r="C127">
-        <v>2.8239E-2</v>
-      </c>
-      <c r="D127">
-        <v>0.13186999999999999</v>
-      </c>
-      <c r="E127">
-        <v>3.9357999999999997E-2</v>
-      </c>
-      <c r="F127">
-        <v>3.9501000000000001E-2</v>
-      </c>
-      <c r="G127">
-        <v>5687</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A128">
-        <v>170</v>
-      </c>
-      <c r="B128">
-        <v>2.0015999999999999E-2</v>
-      </c>
-      <c r="C128">
-        <v>2.8239E-2</v>
-      </c>
-      <c r="D128">
-        <v>0.13186999999999999</v>
-      </c>
-      <c r="E128">
-        <v>3.9357999999999997E-2</v>
-      </c>
-      <c r="F128">
-        <v>3.9501000000000001E-2</v>
-      </c>
-      <c r="G128">
-        <v>5687</v>
-      </c>
-      <c r="Q128" s="3"/>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A129">
-        <v>180</v>
-      </c>
-      <c r="B129">
-        <v>2.0015999999999999E-2</v>
-      </c>
-      <c r="C129">
-        <v>2.8239E-2</v>
-      </c>
-      <c r="D129">
-        <v>0.13186999999999999</v>
-      </c>
-      <c r="E129">
-        <v>3.9357999999999997E-2</v>
-      </c>
-      <c r="F129">
-        <v>3.9501000000000001E-2</v>
-      </c>
-      <c r="G129">
-        <v>5687</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A130">
-        <v>190</v>
-      </c>
-      <c r="B130">
-        <v>2.0015999999999999E-2</v>
-      </c>
-      <c r="C130">
-        <v>2.8239E-2</v>
-      </c>
-      <c r="D130">
-        <v>0.13186999999999999</v>
-      </c>
-      <c r="E130">
-        <v>3.9357999999999997E-2</v>
-      </c>
-      <c r="F130">
-        <v>3.9501000000000001E-2</v>
-      </c>
-      <c r="G130">
-        <v>5687</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A131">
-        <v>200</v>
-      </c>
-      <c r="B131">
-        <v>2.0015999999999999E-2</v>
-      </c>
-      <c r="C131">
-        <v>2.8239E-2</v>
-      </c>
-      <c r="D131">
-        <v>0.13186999999999999</v>
-      </c>
-      <c r="E131">
-        <v>3.9357999999999997E-2</v>
-      </c>
-      <c r="F131">
-        <v>3.9501000000000001E-2</v>
-      </c>
-      <c r="G131">
-        <v>5687</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A133" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>2</v>
-      </c>
-      <c r="B135" t="s">
-        <v>3</v>
-      </c>
-      <c r="C135" t="s">
-        <v>0</v>
-      </c>
-      <c r="D135" t="s">
-        <v>1</v>
-      </c>
-      <c r="E135" t="s">
-        <v>17</v>
-      </c>
-      <c r="F135" t="s">
-        <v>16</v>
-      </c>
-      <c r="G135" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A136">
-        <v>1</v>
-      </c>
-      <c r="B136">
-        <v>3.1513849999999999</v>
-      </c>
-      <c r="C136">
-        <v>0.79215400000000002</v>
-      </c>
-      <c r="D136">
-        <v>6.0737519999999998</v>
-      </c>
-      <c r="E136">
-        <v>0.995278</v>
-      </c>
-      <c r="F136">
-        <v>0.85429299999999997</v>
-      </c>
-      <c r="G136">
-        <v>4361</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A137">
-        <v>2</v>
-      </c>
-      <c r="B137">
-        <v>3.1530119999999999</v>
-      </c>
-      <c r="C137">
-        <v>0.85690100000000002</v>
-      </c>
-      <c r="D137">
-        <v>6.8339939999999997</v>
-      </c>
-      <c r="E137">
-        <v>1.097296</v>
-      </c>
-      <c r="F137">
-        <v>1.0367999999999999</v>
-      </c>
-      <c r="G137">
-        <v>8506</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A138">
-        <v>3</v>
-      </c>
-      <c r="B138">
-        <v>3.1580919999999999</v>
-      </c>
-      <c r="C138">
-        <v>0.88986900000000002</v>
-      </c>
-      <c r="D138">
-        <v>7.4460689999999996</v>
-      </c>
-      <c r="E138">
-        <v>1.1588229999999999</v>
-      </c>
-      <c r="F138">
-        <v>1.1186389999999999</v>
-      </c>
-      <c r="G138">
-        <v>12312</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A139">
-        <v>4</v>
-      </c>
-      <c r="B139">
-        <v>3.1609099999999999</v>
-      </c>
-      <c r="C139">
-        <v>0.91668799999999995</v>
-      </c>
-      <c r="D139">
-        <v>7.8188930000000001</v>
-      </c>
-      <c r="E139">
-        <v>1.1961550000000001</v>
-      </c>
-      <c r="F139">
-        <v>1.171038</v>
-      </c>
-      <c r="G139">
-        <v>15917</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A140">
-        <v>5</v>
-      </c>
-      <c r="B140">
-        <v>3.1611889999999998</v>
-      </c>
-      <c r="C140">
-        <v>0.942527</v>
-      </c>
-      <c r="D140">
-        <v>7.8707250000000002</v>
-      </c>
-      <c r="E140">
-        <v>1.2302900000000001</v>
-      </c>
-      <c r="F140">
-        <v>1.226712</v>
-      </c>
-      <c r="G140">
-        <v>19256</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A141">
-        <v>6</v>
-      </c>
-      <c r="B141">
-        <v>3.1622319999999999</v>
-      </c>
-      <c r="C141">
-        <v>0.98417699999999997</v>
-      </c>
-      <c r="E141">
-        <v>1.2584789999999999</v>
-      </c>
-      <c r="F141">
-        <v>1.257285</v>
-      </c>
-      <c r="G141">
-        <v>22410</v>
-      </c>
-      <c r="J141" s="3"/>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A142">
-        <v>7</v>
-      </c>
-      <c r="B142">
-        <v>3.1643620000000001</v>
-      </c>
-      <c r="C142">
-        <v>1.036203</v>
-      </c>
-      <c r="E142">
-        <v>1.284389</v>
-      </c>
-      <c r="F142">
-        <v>1.27705</v>
-      </c>
-      <c r="G142">
-        <v>25462</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A143">
-        <v>8</v>
-      </c>
-      <c r="B143">
-        <v>3.1670189999999998</v>
-      </c>
-      <c r="C143">
-        <v>1.0666709999999999</v>
-      </c>
-      <c r="E143">
-        <v>1.332352</v>
-      </c>
-      <c r="F143">
-        <v>1.3132969999999999</v>
-      </c>
-      <c r="G143">
-        <v>28497</v>
-      </c>
-      <c r="P143" s="3"/>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A144">
-        <v>9</v>
-      </c>
-      <c r="B144">
-        <v>3.1699299999999999</v>
-      </c>
-      <c r="C144">
-        <v>1.089618</v>
-      </c>
-      <c r="E144">
-        <v>1.355302</v>
-      </c>
-      <c r="F144">
-        <v>1.3572029999999999</v>
-      </c>
-      <c r="G144">
-        <v>31244</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A145">
-        <v>10</v>
-      </c>
-      <c r="B145">
-        <v>3.172485</v>
-      </c>
-      <c r="C145">
-        <v>1.102438</v>
-      </c>
-      <c r="D145">
-        <v>11.187727000000001</v>
-      </c>
-      <c r="E145">
-        <v>1.372296</v>
-      </c>
-      <c r="F145">
-        <v>1.3852599999999999</v>
-      </c>
-      <c r="G145">
-        <v>33900</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A146">
-        <v>20</v>
-      </c>
-      <c r="B146">
-        <v>3.173403</v>
-      </c>
-      <c r="C146">
-        <v>1.3097000000000001</v>
-      </c>
-      <c r="E146">
-        <v>1.6870099999999999</v>
-      </c>
-      <c r="F146">
-        <v>1.7647649999999999</v>
-      </c>
-      <c r="G146">
-        <v>54813</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A147">
-        <v>30</v>
-      </c>
-      <c r="B147">
-        <v>3.1745670000000001</v>
-      </c>
-      <c r="C147">
-        <v>1.5421039999999999</v>
-      </c>
-      <c r="E147">
-        <v>1.9446589999999999</v>
-      </c>
-      <c r="F147">
-        <v>1.977703</v>
-      </c>
-      <c r="G147">
-        <v>68074</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148">
-        <v>40</v>
-      </c>
-      <c r="B148">
-        <v>3.1751309999999999</v>
-      </c>
-      <c r="C148">
-        <v>1.7181759999999999</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149">
-        <v>50</v>
-      </c>
-      <c r="B149">
-        <v>3.1772830000000001</v>
-      </c>
-      <c r="C149">
-        <v>2.0689829999999998</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A150">
-        <v>60</v>
-      </c>
-      <c r="B150">
-        <v>3.1794449999999999</v>
-      </c>
-      <c r="C150">
-        <v>2.5086889999999999</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A151">
-        <v>70</v>
-      </c>
-      <c r="B151">
-        <v>3.1800090000000001</v>
-      </c>
-      <c r="C151">
-        <v>2.788694</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A152">
-        <v>80</v>
-      </c>
-      <c r="B152">
-        <v>3.1810450000000001</v>
-      </c>
-      <c r="C152">
-        <v>3.4072559999999998</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153">
-        <v>90</v>
-      </c>
-      <c r="B153">
-        <v>3.1811340000000001</v>
-      </c>
-      <c r="C153">
-        <v>4.0145900000000001</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A154">
-        <v>100</v>
-      </c>
-      <c r="B154">
-        <v>3.1822089999999998</v>
-      </c>
-      <c r="C154">
-        <v>4.7593319999999997</v>
-      </c>
-      <c r="D154">
-        <v>53.237139999999997</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155">
-        <v>110</v>
-      </c>
-      <c r="B155">
+      <c r="B160">
         <v>3.1830029999999998</v>
       </c>
-      <c r="C155">
+      <c r="C160">
         <v>5.4845540000000002</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A156">
-        <v>120</v>
-      </c>
-      <c r="B156">
-        <v>3.1839719999999998</v>
-      </c>
-      <c r="C156">
-        <v>6.2690760000000001</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A157">
-        <v>130</v>
-      </c>
-      <c r="B157">
-        <v>3.1847650000000001</v>
-      </c>
-      <c r="C157">
-        <v>6.9130989999999999</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A158">
-        <v>140</v>
-      </c>
-      <c r="B158">
-        <v>3.1757840000000002</v>
-      </c>
-      <c r="C158">
-        <v>7.509468</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A159">
-        <v>150</v>
-      </c>
-      <c r="B159">
-        <v>3.1890329999999998</v>
-      </c>
-      <c r="C159">
-        <v>8.1053409999999992</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A160">
-        <v>160</v>
-      </c>
-      <c r="B160">
-        <v>3.190007</v>
-      </c>
-      <c r="C160" s="3">
-        <v>8.5311330000000005</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="B161">
-        <v>3.190089</v>
+        <v>3.1839719999999998</v>
       </c>
       <c r="C161">
-        <v>9.0089980000000001</v>
+        <v>6.2690760000000001</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="B162">
-        <v>3.1901739999999998</v>
+        <v>3.1847650000000001</v>
       </c>
       <c r="C162">
-        <v>9.5906760000000002</v>
+        <v>6.9130989999999999</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="B163">
-        <v>3.1920009999999999</v>
+        <v>3.1757840000000002</v>
       </c>
       <c r="C163">
-        <v>10.000007999999999</v>
+        <v>7.509468</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
+        <v>150</v>
+      </c>
+      <c r="B164">
+        <v>3.1890329999999998</v>
+      </c>
+      <c r="C164">
+        <v>8.1053409999999992</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>160</v>
+      </c>
+      <c r="B165">
+        <v>3.190007</v>
+      </c>
+      <c r="C165">
+        <v>8.5311330000000005</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>170</v>
+      </c>
+      <c r="B166">
+        <v>3.190089</v>
+      </c>
+      <c r="C166">
+        <v>9.0089980000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>180</v>
+      </c>
+      <c r="B167">
+        <v>3.1901739999999998</v>
+      </c>
+      <c r="C167">
+        <v>9.5906760000000002</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>190</v>
+      </c>
+      <c r="B168">
+        <v>3.1920009999999999</v>
+      </c>
+      <c r="C168">
+        <v>10.000007999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169">
         <v>200</v>
       </c>
-      <c r="B164">
+      <c r="B169">
         <v>3.1920449999999998</v>
       </c>
-      <c r="C164">
+      <c r="C169">
         <v>10.431285000000001</v>
       </c>
-      <c r="D164">
+      <c r="D169">
         <v>111.780191</v>
       </c>
     </row>

--- a/TempiEsecuzione.xlsx
+++ b/TempiEsecuzione.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\OneDrive\UNI\Tirocinio\Codici\risultati_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{222CCFA6-9F75-45FF-B930-D86AA5A0CB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EF9960-C239-4533-8101-43935EE414F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -221,7 +221,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,12 +270,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -289,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -358,22 +352,12 @@
       </extLst>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -39563,8 +39547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J84" sqref="J84"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39591,16 +39575,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
       <c r="P1" s="25" t="s">
         <v>17</v>
       </c>
@@ -40064,7 +40048,7 @@
       <c r="S8" s="22">
         <v>11580</v>
       </c>
-      <c r="T8" s="29">
+      <c r="T8" s="20">
         <v>11582</v>
       </c>
       <c r="U8" s="23">
@@ -40129,7 +40113,7 @@
       <c r="S9" s="22">
         <v>11580</v>
       </c>
-      <c r="T9" s="29">
+      <c r="T9" s="20">
         <v>11582</v>
       </c>
       <c r="U9" s="23">
@@ -40194,7 +40178,7 @@
       <c r="S10" s="22">
         <v>11582</v>
       </c>
-      <c r="T10" s="29">
+      <c r="T10" s="20">
         <v>11582</v>
       </c>
       <c r="U10" s="23">
@@ -40259,7 +40243,7 @@
       <c r="S11" s="22">
         <v>11582</v>
       </c>
-      <c r="T11" s="29">
+      <c r="T11" s="20">
         <v>11582</v>
       </c>
       <c r="U11" s="23">
@@ -40324,7 +40308,7 @@
       <c r="S12" s="22">
         <v>11582</v>
       </c>
-      <c r="T12" s="29">
+      <c r="T12" s="20">
         <v>11582</v>
       </c>
       <c r="U12" s="23">
@@ -40389,7 +40373,7 @@
       <c r="S13" s="22">
         <v>11582</v>
       </c>
-      <c r="T13" s="29">
+      <c r="T13" s="20">
         <v>11582</v>
       </c>
       <c r="U13" s="23">
@@ -40454,7 +40438,7 @@
       <c r="S14" s="22">
         <v>11582</v>
       </c>
-      <c r="T14" s="29">
+      <c r="T14" s="20">
         <v>11582</v>
       </c>
       <c r="U14" s="23">
@@ -40560,7 +40544,7 @@
       <c r="G19">
         <v>3.8818723678588869</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19">
         <v>9.5085898240407314</v>
       </c>
       <c r="I19" s="8">
@@ -40590,7 +40574,7 @@
       <c r="R19">
         <v>93019</v>
       </c>
-      <c r="S19" s="30">
+      <c r="S19">
         <v>134670</v>
       </c>
       <c r="T19" s="8">
@@ -40631,7 +40615,7 @@
       <c r="G20">
         <v>4.5595036506652828</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20">
         <v>10.6058251063029</v>
       </c>
       <c r="I20" s="8">
@@ -40661,7 +40645,7 @@
       <c r="R20">
         <v>113464</v>
       </c>
-      <c r="S20" s="30">
+      <c r="S20">
         <v>167805</v>
       </c>
       <c r="T20" s="8">
@@ -40696,7 +40680,7 @@
       <c r="G21">
         <v>5.1388456344604494</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21">
         <v>11.048904021581009</v>
       </c>
       <c r="I21" s="8">
@@ -40726,7 +40710,7 @@
       <c r="R21">
         <v>131297</v>
       </c>
-      <c r="S21" s="30">
+      <c r="S21">
         <v>182368</v>
       </c>
       <c r="T21" s="8">
@@ -40761,7 +40745,7 @@
       <c r="G22">
         <v>5.6150626659393312</v>
       </c>
-      <c r="H22" s="30">
+      <c r="H22">
         <v>11.319370905558269</v>
       </c>
       <c r="I22" s="8">
@@ -40791,7 +40775,7 @@
       <c r="R22">
         <v>146085</v>
       </c>
-      <c r="S22" s="30">
+      <c r="S22">
         <v>190876</v>
       </c>
       <c r="T22" s="8">
@@ -40826,7 +40810,7 @@
       <c r="G23">
         <v>5.944196653366089</v>
       </c>
-      <c r="H23" s="30">
+      <c r="H23">
         <v>11.50403094291687</v>
       </c>
       <c r="I23" s="8">
@@ -40856,7 +40840,7 @@
       <c r="R23">
         <v>158269</v>
       </c>
-      <c r="S23" s="30">
+      <c r="S23">
         <v>196396</v>
       </c>
       <c r="T23" s="8">
@@ -40891,7 +40875,7 @@
       <c r="G24">
         <v>6.2425704956054684</v>
       </c>
-      <c r="H24" s="30">
+      <c r="H24">
         <v>11.59459773699442</v>
       </c>
       <c r="I24" s="8">
@@ -40921,7 +40905,7 @@
       <c r="R24">
         <v>169071</v>
       </c>
-      <c r="S24" s="30">
+      <c r="S24">
         <v>201320</v>
       </c>
       <c r="T24" s="8">
@@ -40956,7 +40940,7 @@
       <c r="G25">
         <v>6.5075479030609129</v>
       </c>
-      <c r="H25" s="30">
+      <c r="H25">
         <v>11.68994339307149</v>
       </c>
       <c r="I25" s="8">
@@ -40986,7 +40970,7 @@
       <c r="R25">
         <v>177669</v>
       </c>
-      <c r="S25" s="30">
+      <c r="S25">
         <v>206210</v>
       </c>
       <c r="T25" s="8">
@@ -41021,7 +41005,7 @@
       <c r="G26">
         <v>6.8186140060424796</v>
       </c>
-      <c r="H26" s="30">
+      <c r="H26">
         <v>11.717466354370121</v>
       </c>
       <c r="I26" s="8">
@@ -41051,7 +41035,7 @@
       <c r="R26">
         <v>184627</v>
       </c>
-      <c r="S26" s="30">
+      <c r="S26">
         <v>210593</v>
       </c>
       <c r="T26" s="8">
@@ -41086,7 +41070,7 @@
       <c r="G27">
         <v>7.0530581474304199</v>
       </c>
-      <c r="H27" s="30">
+      <c r="H27">
         <v>11.73469519615173</v>
       </c>
       <c r="I27" s="8">
@@ -41116,7 +41100,7 @@
       <c r="R27">
         <v>190709</v>
       </c>
-      <c r="S27" s="30">
+      <c r="S27">
         <v>215771</v>
       </c>
       <c r="T27" s="8">
@@ -41151,7 +41135,7 @@
       <c r="G28">
         <v>7.329058742523193</v>
       </c>
-      <c r="H28" s="30">
+      <c r="H28">
         <v>11.84064888954163</v>
       </c>
       <c r="I28" s="8">
@@ -41181,7 +41165,7 @@
       <c r="R28">
         <v>195855</v>
       </c>
-      <c r="S28" s="30">
+      <c r="S28">
         <v>219895</v>
       </c>
       <c r="T28" s="8">
@@ -41216,7 +41200,7 @@
       <c r="G29">
         <v>9.6767540454864509</v>
       </c>
-      <c r="H29" s="30">
+      <c r="H29">
         <v>12.074659665425621</v>
       </c>
       <c r="I29" s="8">
@@ -41246,7 +41230,7 @@
       <c r="R29">
         <v>234783</v>
       </c>
-      <c r="S29" s="30">
+      <c r="S29">
         <v>256774</v>
       </c>
       <c r="T29" s="8">
@@ -41281,7 +41265,7 @@
       <c r="G30">
         <v>12.144288587570189</v>
       </c>
-      <c r="H30" s="30">
+      <c r="H30">
         <v>12.226264397303259</v>
       </c>
       <c r="I30" s="8">
@@ -41311,7 +41295,7 @@
       <c r="R30">
         <v>261369</v>
       </c>
-      <c r="S30" s="30">
+      <c r="S30">
         <v>286596</v>
       </c>
       <c r="T30" s="8">
@@ -41390,7 +41374,7 @@
       <c r="C35" s="7">
         <v>1.174152612686157</v>
       </c>
-      <c r="D35" s="30">
+      <c r="D35">
         <v>12.56597638130188</v>
       </c>
       <c r="E35" s="8">
@@ -41414,7 +41398,7 @@
       <c r="P35" s="7">
         <v>131458</v>
       </c>
-      <c r="Q35" s="30">
+      <c r="Q35">
         <v>1496579</v>
       </c>
       <c r="R35" s="9">
@@ -41448,7 +41432,7 @@
       <c r="C36" s="7">
         <v>1.3699285030365</v>
       </c>
-      <c r="D36" s="30">
+      <c r="D36">
         <v>12.85296416282654</v>
       </c>
       <c r="E36" s="8">
@@ -41472,7 +41456,7 @@
       <c r="P36" s="7">
         <v>132328</v>
       </c>
-      <c r="Q36" s="30">
+      <c r="Q36">
         <v>1589191</v>
       </c>
       <c r="R36" s="9">
@@ -41495,7 +41479,7 @@
       <c r="C37" s="7">
         <v>1.4125238513946501</v>
       </c>
-      <c r="D37" s="30">
+      <c r="D37">
         <v>22.939017295837399</v>
       </c>
       <c r="E37" s="8">
@@ -41519,7 +41503,7 @@
       <c r="P37" s="7">
         <v>132930</v>
       </c>
-      <c r="Q37" s="30">
+      <c r="Q37">
         <v>2410639</v>
       </c>
       <c r="R37" s="9">
@@ -41542,7 +41526,7 @@
       <c r="C38" s="7">
         <v>1.45696227073669</v>
       </c>
-      <c r="D38" s="30">
+      <c r="D38">
         <v>25.162518739700321</v>
       </c>
       <c r="E38" s="8">
@@ -41566,7 +41550,7 @@
       <c r="P38" s="7">
         <v>133381</v>
       </c>
-      <c r="Q38" s="30">
+      <c r="Q38">
         <v>2648141</v>
       </c>
       <c r="R38" s="9">
@@ -41589,7 +41573,7 @@
       <c r="C39" s="7">
         <v>1.4430250263214099</v>
       </c>
-      <c r="D39" s="30">
+      <c r="D39">
         <v>27.163036108016971</v>
       </c>
       <c r="E39" s="8">
@@ -41613,7 +41597,7 @@
       <c r="P39" s="7">
         <v>134229</v>
       </c>
-      <c r="Q39" s="30">
+      <c r="Q39">
         <v>2885978</v>
       </c>
       <c r="R39" s="9">
@@ -41636,7 +41620,7 @@
       <c r="C40" s="7">
         <v>1.3652951240539599</v>
       </c>
-      <c r="D40" s="30">
+      <c r="D40">
         <v>29.089981079101559</v>
       </c>
       <c r="E40" s="8">
@@ -41660,7 +41644,7 @@
       <c r="P40" s="7">
         <v>134955</v>
       </c>
-      <c r="Q40" s="30">
+      <c r="Q40">
         <v>3128322</v>
       </c>
       <c r="R40" s="9">
@@ -41683,7 +41667,7 @@
       <c r="C41" s="7">
         <v>1.38788733482361</v>
       </c>
-      <c r="D41" s="30">
+      <c r="D41">
         <v>31.066370248794559</v>
       </c>
       <c r="E41" s="8">
@@ -41707,7 +41691,7 @@
       <c r="P41" s="7">
         <v>141146</v>
       </c>
-      <c r="Q41" s="30">
+      <c r="Q41">
         <v>3353453</v>
       </c>
       <c r="R41" s="9">
@@ -41730,7 +41714,7 @@
       <c r="C42" s="7">
         <v>1.34500894546509</v>
       </c>
-      <c r="D42" s="30">
+      <c r="D42">
         <v>33.587715864181519</v>
       </c>
       <c r="E42" s="8">
@@ -41754,7 +41738,7 @@
       <c r="P42" s="7">
         <v>141915</v>
       </c>
-      <c r="Q42" s="30">
+      <c r="Q42">
         <v>3699794</v>
       </c>
       <c r="R42" s="9">
@@ -41777,7 +41761,7 @@
       <c r="C43" s="7">
         <v>1.46118946075439</v>
       </c>
-      <c r="D43" s="30">
+      <c r="D43">
         <v>38.10905647277832</v>
       </c>
       <c r="E43" s="8">
@@ -41801,7 +41785,7 @@
       <c r="P43" s="7">
         <v>142595</v>
       </c>
-      <c r="Q43" s="30">
+      <c r="Q43">
         <v>4117906</v>
       </c>
       <c r="R43" s="9">
@@ -41824,7 +41808,7 @@
       <c r="C44" s="7">
         <v>1.5897709751129201</v>
       </c>
-      <c r="D44" s="30">
+      <c r="D44">
         <v>41.562310457229607</v>
       </c>
       <c r="E44" s="8">
@@ -41848,7 +41832,7 @@
       <c r="P44" s="7">
         <v>144028</v>
       </c>
-      <c r="Q44" s="30">
+      <c r="Q44">
         <v>4547817</v>
       </c>
       <c r="R44" s="9">
@@ -41871,7 +41855,7 @@
       <c r="C45" s="7">
         <v>1.6205991172790499</v>
       </c>
-      <c r="D45" s="30">
+      <c r="D45">
         <v>65.459925651550293</v>
       </c>
       <c r="E45" s="8">
@@ -41895,7 +41879,7 @@
       <c r="P45" s="7">
         <v>156995</v>
       </c>
-      <c r="Q45" s="30">
+      <c r="Q45">
         <v>7883283</v>
       </c>
       <c r="R45" s="9">
@@ -41918,7 +41902,7 @@
       <c r="C46" s="7">
         <v>1.5365594291686999</v>
       </c>
-      <c r="D46" s="30">
+      <c r="D46">
         <v>78.316174268722534</v>
       </c>
       <c r="E46" s="8">
@@ -41942,7 +41926,7 @@
       <c r="P46" s="7">
         <v>163834</v>
       </c>
-      <c r="Q46" s="30">
+      <c r="Q46">
         <v>9736154</v>
       </c>
       <c r="R46" s="9">
@@ -41954,30 +41938,15 @@
       <c r="T46" s="8">
         <v>160994</v>
       </c>
-    </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="Q47" s="30"/>
-      <c r="T47" s="30"/>
-    </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="T48" s="30"/>
     </row>
     <row r="49" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
       <c r="P49" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="Q49" s="33"/>
-      <c r="T49" s="30"/>
+      <c r="Q49" s="13"/>
       <c r="X49" s="13"/>
       <c r="Y49" s="13"/>
       <c r="Z49" s="12"/>
@@ -41992,10 +41961,10 @@
       <c r="C50" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D50" s="32" t="s">
+      <c r="D50" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="32" t="s">
+      <c r="E50" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F50" s="1" t="s">
@@ -42016,7 +41985,7 @@
       <c r="P50" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Q50" s="32" t="s">
+      <c r="Q50" s="1" t="s">
         <v>16</v>
       </c>
       <c r="R50" s="1" t="s">
@@ -42025,7 +41994,7 @@
       <c r="S50" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T50" s="32" t="s">
+      <c r="T50" s="1" t="s">
         <v>25</v>
       </c>
       <c r="V50" s="10"/>
@@ -42053,7 +42022,7 @@
       <c r="C51" s="7">
         <v>4.4236297607421884</v>
       </c>
-      <c r="D51" s="30">
+      <c r="D51">
         <v>15.18524661064148</v>
       </c>
       <c r="E51" s="8">
@@ -42077,7 +42046,7 @@
       <c r="P51" s="7">
         <v>637187</v>
       </c>
-      <c r="Q51" s="30">
+      <c r="Q51">
         <v>2425113</v>
       </c>
       <c r="R51" s="9">
@@ -42100,7 +42069,7 @@
       <c r="C52" s="7">
         <v>4.5470125675201416</v>
       </c>
-      <c r="D52" s="30">
+      <c r="D52">
         <v>16.661904478073119</v>
       </c>
       <c r="E52" s="8">
@@ -42125,7 +42094,7 @@
       <c r="P52" s="7">
         <v>696420</v>
       </c>
-      <c r="Q52" s="30">
+      <c r="Q52">
         <v>2657267</v>
       </c>
       <c r="R52" s="9">
@@ -42148,7 +42117,7 @@
       <c r="C53" s="7">
         <v>5.4771571159362793</v>
       </c>
-      <c r="D53" s="30">
+      <c r="D53">
         <v>17.281036996841429</v>
       </c>
       <c r="E53" s="8">
@@ -42172,7 +42141,7 @@
       <c r="P53" s="7">
         <v>725699</v>
       </c>
-      <c r="Q53" s="30">
+      <c r="Q53">
         <v>2785658</v>
       </c>
       <c r="R53" s="9">
@@ -42195,7 +42164,7 @@
       <c r="C54" s="7">
         <v>5.1537978649139404</v>
       </c>
-      <c r="D54" s="30">
+      <c r="D54">
         <v>17.539303731918331</v>
       </c>
       <c r="E54" s="8">
@@ -42219,7 +42188,7 @@
       <c r="P54" s="7">
         <v>748762</v>
       </c>
-      <c r="Q54" s="30">
+      <c r="Q54">
         <v>2869800</v>
       </c>
       <c r="R54" s="9">
@@ -42242,7 +42211,7 @@
       <c r="C55" s="7">
         <v>5.1433448791503906</v>
       </c>
-      <c r="D55" s="30">
+      <c r="D55">
         <v>17.986919689178471</v>
       </c>
       <c r="E55" s="8">
@@ -42266,7 +42235,7 @@
       <c r="P55" s="7">
         <v>769591</v>
       </c>
-      <c r="Q55" s="30">
+      <c r="Q55">
         <v>2936114</v>
       </c>
       <c r="R55" s="9">
@@ -42289,7 +42258,7 @@
       <c r="C56" s="7">
         <v>5.3303041458129883</v>
       </c>
-      <c r="D56" s="30">
+      <c r="D56">
         <v>18.34412064552307</v>
       </c>
       <c r="E56" s="8">
@@ -42313,7 +42282,7 @@
       <c r="P56" s="7">
         <v>790150</v>
       </c>
-      <c r="Q56" s="30">
+      <c r="Q56">
         <v>3009179</v>
       </c>
       <c r="R56" s="9">
@@ -42336,7 +42305,7 @@
       <c r="C57" s="7">
         <v>7.3659977912902832</v>
       </c>
-      <c r="D57" s="30">
+      <c r="D57">
         <v>18.438672399520879</v>
       </c>
       <c r="E57" s="8">
@@ -42360,7 +42329,7 @@
       <c r="P57" s="7">
         <v>810285</v>
       </c>
-      <c r="Q57" s="30">
+      <c r="Q57">
         <v>3110395</v>
       </c>
       <c r="R57" s="9">
@@ -42383,7 +42352,7 @@
       <c r="C58" s="7">
         <v>7.8058767318725586</v>
       </c>
-      <c r="D58" s="30">
+      <c r="D58">
         <v>18.796078634262081</v>
       </c>
       <c r="E58" s="8">
@@ -42407,7 +42376,7 @@
       <c r="P58" s="7">
         <v>831442</v>
       </c>
-      <c r="Q58" s="30">
+      <c r="Q58">
         <v>3219242</v>
       </c>
       <c r="R58" s="9">
@@ -42430,7 +42399,7 @@
       <c r="C59" s="7">
         <v>5.8103787899017334</v>
       </c>
-      <c r="D59" s="30">
+      <c r="D59">
         <v>19.148387622833251</v>
       </c>
       <c r="E59" s="8">
@@ -42454,7 +42423,7 @@
       <c r="P59" s="7">
         <v>850963</v>
       </c>
-      <c r="Q59" s="30">
+      <c r="Q59">
         <v>3298697</v>
       </c>
       <c r="R59" s="9">
@@ -42477,7 +42446,7 @@
       <c r="C60" s="7">
         <v>7.4149878025054932</v>
       </c>
-      <c r="D60" s="30">
+      <c r="D60">
         <v>19.446783924102778</v>
       </c>
       <c r="E60" s="8">
@@ -42501,7 +42470,7 @@
       <c r="P60" s="7">
         <v>870532</v>
       </c>
-      <c r="Q60" s="30">
+      <c r="Q60">
         <v>3361550</v>
       </c>
       <c r="R60" s="9">
@@ -42524,7 +42493,7 @@
       <c r="C61" s="7">
         <v>6.7171096801757813</v>
       </c>
-      <c r="D61" s="30">
+      <c r="D61">
         <v>21.531193161010741</v>
       </c>
       <c r="E61" s="8">
@@ -42548,7 +42517,7 @@
       <c r="P61" s="7">
         <v>1044731</v>
       </c>
-      <c r="Q61" s="30">
+      <c r="Q61">
         <v>3782082</v>
       </c>
       <c r="R61" s="9">
@@ -42571,7 +42540,7 @@
       <c r="C62" s="7">
         <v>7.5430588722229004</v>
       </c>
-      <c r="D62" s="30">
+      <c r="D62">
         <v>24.044330358505199</v>
       </c>
       <c r="E62" s="8">
@@ -42595,7 +42564,7 @@
       <c r="P62" s="7">
         <v>1183406</v>
       </c>
-      <c r="Q62" s="30">
+      <c r="Q62">
         <v>3925424</v>
       </c>
       <c r="R62" s="9">
@@ -42608,30 +42577,16 @@
         <v>1178185</v>
       </c>
     </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="Q63" s="30"/>
-      <c r="T63" s="30"/>
-    </row>
     <row r="64" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="Q64" s="30"/>
-      <c r="T64" s="30"/>
       <c r="Z64" s="12"/>
     </row>
     <row r="65" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
       <c r="P65" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="Q65" s="30"/>
-      <c r="T65" s="30"/>
       <c r="Z65" s="11"/>
       <c r="AA65" s="11"/>
       <c r="AB65" s="11"/>
@@ -42654,10 +42609,10 @@
       <c r="C66" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D66" s="32" t="s">
+      <c r="D66" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E66" s="32" t="s">
+      <c r="E66" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F66" s="1" t="s">
@@ -42678,7 +42633,7 @@
       <c r="P66" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Q66" s="32" t="s">
+      <c r="Q66" s="1" t="s">
         <v>16</v>
       </c>
       <c r="R66" s="1" t="s">
@@ -42687,7 +42642,7 @@
       <c r="S66" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T66" s="32" t="s">
+      <c r="T66" s="1" t="s">
         <v>25</v>
       </c>
       <c r="W66" s="11"/>
@@ -42704,7 +42659,7 @@
       <c r="C67" s="7">
         <v>16.410406112670898</v>
       </c>
-      <c r="D67" s="30">
+      <c r="D67">
         <v>53.062795639038093</v>
       </c>
       <c r="E67" s="8">
@@ -42728,7 +42683,7 @@
       <c r="P67" s="7">
         <v>1479088</v>
       </c>
-      <c r="Q67" s="30">
+      <c r="Q67">
         <v>8165549</v>
       </c>
       <c r="R67" s="9">
@@ -42751,7 +42706,7 @@
       <c r="C68" s="7">
         <v>18.500817060470581</v>
       </c>
-      <c r="D68" s="30">
+      <c r="D68">
         <v>54.772680521011353</v>
       </c>
       <c r="E68" s="8">
@@ -42775,7 +42730,7 @@
       <c r="P68" s="7">
         <v>1713317</v>
       </c>
-      <c r="Q68" s="30">
+      <c r="Q68">
         <v>8457605</v>
       </c>
       <c r="R68" s="9">
@@ -42798,7 +42753,7 @@
       <c r="C69" s="7">
         <v>20.481873035430912</v>
       </c>
-      <c r="D69" s="30">
+      <c r="D69">
         <v>54.317698955535889</v>
       </c>
       <c r="E69" s="8">
@@ -42822,7 +42777,7 @@
       <c r="P69" s="7">
         <v>1793148</v>
       </c>
-      <c r="Q69" s="30">
+      <c r="Q69">
         <v>8641849</v>
       </c>
       <c r="R69" s="9">
@@ -42845,7 +42800,7 @@
       <c r="C70" s="7">
         <v>19.656308889389042</v>
       </c>
-      <c r="D70" s="30">
+      <c r="D70">
         <v>56.339909553527832</v>
       </c>
       <c r="E70" s="8">
@@ -42869,7 +42824,7 @@
       <c r="P70" s="7">
         <v>1832414</v>
       </c>
-      <c r="Q70" s="30">
+      <c r="Q70">
         <v>8766662</v>
       </c>
       <c r="R70" s="9">
@@ -42892,7 +42847,7 @@
       <c r="C71" s="7">
         <v>19.754123687744141</v>
       </c>
-      <c r="D71" s="30">
+      <c r="D71">
         <v>55.05345892906189</v>
       </c>
       <c r="E71" s="8">
@@ -42916,7 +42871,7 @@
       <c r="P71" s="7">
         <v>1851626</v>
       </c>
-      <c r="Q71" s="30">
+      <c r="Q71">
         <v>8856278</v>
       </c>
       <c r="R71" s="9">
@@ -42939,7 +42894,7 @@
       <c r="C72" s="7">
         <v>20.771655559539791</v>
       </c>
-      <c r="D72" s="30">
+      <c r="D72">
         <v>55.200651884078979</v>
       </c>
       <c r="E72" s="8">
@@ -42963,7 +42918,7 @@
       <c r="P72" s="7">
         <v>1864594</v>
       </c>
-      <c r="Q72" s="30">
+      <c r="Q72">
         <v>8920708</v>
       </c>
       <c r="R72" s="9">
@@ -42986,7 +42941,7 @@
       <c r="C73" s="7">
         <v>20.051409006118771</v>
       </c>
-      <c r="D73" s="30">
+      <c r="D73">
         <v>56.513439416885383</v>
       </c>
       <c r="E73" s="8">
@@ -43010,7 +42965,7 @@
       <c r="P73" s="7">
         <v>1874773</v>
       </c>
-      <c r="Q73" s="30">
+      <c r="Q73">
         <v>8970201</v>
       </c>
       <c r="R73" s="9">
@@ -43033,7 +42988,7 @@
       <c r="C74" s="7">
         <v>21.494873523712162</v>
       </c>
-      <c r="D74" s="30">
+      <c r="D74">
         <v>55.639050483703613</v>
       </c>
       <c r="E74" s="8">
@@ -43057,7 +43012,7 @@
       <c r="P74" s="7">
         <v>1884238</v>
       </c>
-      <c r="Q74" s="30">
+      <c r="Q74">
         <v>9008868</v>
       </c>
       <c r="R74" s="9">
@@ -43080,7 +43035,7 @@
       <c r="C75" s="7">
         <v>20.342174291610721</v>
       </c>
-      <c r="D75" s="30">
+      <c r="D75">
         <v>56.998401165008538</v>
       </c>
       <c r="E75" s="8">
@@ -43104,7 +43059,7 @@
       <c r="P75" s="7">
         <v>1892430</v>
       </c>
-      <c r="Q75" s="30">
+      <c r="Q75">
         <v>9039657</v>
       </c>
       <c r="R75" s="9">
@@ -43127,7 +43082,7 @@
       <c r="C76" s="7">
         <v>20.221263647079471</v>
       </c>
-      <c r="D76" s="30">
+      <c r="D76">
         <v>55.696179628372192</v>
       </c>
       <c r="E76" s="8">
@@ -43151,7 +43106,7 @@
       <c r="P76" s="7">
         <v>1900059</v>
       </c>
-      <c r="Q76" s="30">
+      <c r="Q76">
         <v>9064895</v>
       </c>
       <c r="R76" s="9">
@@ -43174,7 +43129,7 @@
       <c r="C77" s="7">
         <v>22.375431060791019</v>
       </c>
-      <c r="D77" s="30">
+      <c r="D77">
         <v>56.088300466537483</v>
       </c>
       <c r="E77" s="8">
@@ -43198,7 +43153,7 @@
       <c r="P77" s="7">
         <v>2014397</v>
       </c>
-      <c r="Q77" s="30">
+      <c r="Q77">
         <v>9173210</v>
       </c>
       <c r="R77" s="9">
@@ -43221,7 +43176,7 @@
       <c r="C78" s="7">
         <v>23.47187423706055</v>
       </c>
-      <c r="D78" s="30">
+      <c r="D78">
         <v>56.877768993377693</v>
       </c>
       <c r="E78" s="8">
@@ -43245,7 +43200,7 @@
       <c r="P78" s="7">
         <v>2171895</v>
       </c>
-      <c r="Q78" s="30">
+      <c r="Q78">
         <v>9180996</v>
       </c>
       <c r="R78" s="9">
@@ -43259,17 +43214,9 @@
       </c>
     </row>
     <row r="79" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="D79" s="30"/>
-      <c r="E79" s="30"/>
-      <c r="Q79" s="30"/>
-      <c r="T79" s="30"/>
       <c r="Z79" s="12"/>
     </row>
     <row r="80" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="D80" s="30"/>
-      <c r="E80" s="30"/>
-      <c r="Q80" s="30"/>
-      <c r="T80" s="30"/>
       <c r="Z80" s="11"/>
       <c r="AA80" s="11"/>
       <c r="AB80" s="11"/>
@@ -43292,13 +43239,9 @@
       <c r="A81" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D81" s="30"/>
-      <c r="E81" s="30"/>
       <c r="P81" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="Q81" s="30"/>
-      <c r="T81" s="30"/>
     </row>
     <row r="82" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
@@ -43310,10 +43253,10 @@
       <c r="C82" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D82" s="32" t="s">
+      <c r="D82" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E82" s="32" t="s">
+      <c r="E82" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F82" s="1" t="s">
@@ -43334,7 +43277,7 @@
       <c r="P82" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Q82" s="32" t="s">
+      <c r="Q82" s="1" t="s">
         <v>16</v>
       </c>
       <c r="R82" s="1" t="s">
@@ -43343,7 +43286,7 @@
       <c r="S82" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T82" s="32" t="s">
+      <c r="T82" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -43357,7 +43300,7 @@
       <c r="C83" s="7">
         <v>14.35952401161194</v>
       </c>
-      <c r="D83" s="30">
+      <c r="D83">
         <v>255.74258923530579</v>
       </c>
       <c r="E83" s="8">
@@ -43381,7 +43324,7 @@
       <c r="P83" s="7">
         <v>1315574</v>
       </c>
-      <c r="Q83" s="30">
+      <c r="Q83">
         <v>31961210</v>
       </c>
       <c r="R83" s="9">
@@ -43404,7 +43347,7 @@
       <c r="C84" s="7">
         <v>12.552831888198851</v>
       </c>
-      <c r="D84" s="30">
+      <c r="D84">
         <v>268.6511025428772</v>
       </c>
       <c r="E84" s="8">
@@ -43428,7 +43371,7 @@
       <c r="P84" s="7">
         <v>1445600</v>
       </c>
-      <c r="Q84" s="30">
+      <c r="Q84">
         <v>34250858</v>
       </c>
       <c r="R84" s="9">
@@ -43451,7 +43394,7 @@
       <c r="C85" s="7">
         <v>12.85100269317627</v>
       </c>
-      <c r="D85" s="30">
+      <c r="D85">
         <v>280.79389119148249</v>
       </c>
       <c r="E85" s="8">
@@ -43475,7 +43418,7 @@
       <c r="P85" s="7">
         <v>1481259</v>
       </c>
-      <c r="Q85" s="30">
+      <c r="Q85">
         <v>36083908</v>
       </c>
       <c r="R85" s="9">
@@ -43498,7 +43441,7 @@
       <c r="C86" s="7">
         <v>13.05295729637146</v>
       </c>
-      <c r="D86" s="30">
+      <c r="D86">
         <v>289.11190104484558</v>
       </c>
       <c r="E86" s="8">
@@ -43522,7 +43465,7 @@
       <c r="P86" s="7">
         <v>1496772</v>
       </c>
-      <c r="Q86" s="30">
+      <c r="Q86">
         <v>37814456</v>
       </c>
       <c r="R86" s="9">
@@ -43545,7 +43488,7 @@
       <c r="C87" s="7">
         <v>13.038713455200201</v>
       </c>
-      <c r="D87" s="30">
+      <c r="D87">
         <v>299.59609627723688</v>
       </c>
       <c r="E87" s="8">
@@ -43569,7 +43512,7 @@
       <c r="P87" s="7">
         <v>1506663</v>
       </c>
-      <c r="Q87" s="30">
+      <c r="Q87">
         <v>39408651</v>
       </c>
       <c r="R87" s="9">
@@ -43592,7 +43535,7 @@
       <c r="C88" s="7">
         <v>13.208602428436279</v>
       </c>
-      <c r="D88" s="30">
+      <c r="D88">
         <v>306.52827978134161</v>
       </c>
       <c r="E88" s="8">
@@ -43616,7 +43559,7 @@
       <c r="P88" s="7">
         <v>1514995</v>
       </c>
-      <c r="Q88" s="30">
+      <c r="Q88">
         <v>40922346</v>
       </c>
       <c r="R88" s="9">
@@ -43639,7 +43582,7 @@
       <c r="C89" s="7">
         <v>13.257162094116209</v>
       </c>
-      <c r="D89" s="30">
+      <c r="D89">
         <v>315.94128203392029</v>
       </c>
       <c r="E89" s="8">
@@ -43663,7 +43606,7 @@
       <c r="P89" s="7">
         <v>1523820</v>
       </c>
-      <c r="Q89" s="30">
+      <c r="Q89">
         <v>42369185</v>
       </c>
       <c r="R89" s="9">
@@ -43686,7 +43629,7 @@
       <c r="C90" s="7">
         <v>13.655655384063721</v>
       </c>
-      <c r="D90" s="30">
+      <c r="D90">
         <v>319.57062029838562</v>
       </c>
       <c r="E90" s="8">
@@ -43710,7 +43653,7 @@
       <c r="P90" s="7">
         <v>1532264</v>
       </c>
-      <c r="Q90" s="30">
+      <c r="Q90">
         <v>43778612</v>
       </c>
       <c r="R90" s="9">
@@ -43733,7 +43676,7 @@
       <c r="C91" s="7">
         <v>13.275803804397579</v>
       </c>
-      <c r="D91" s="30">
+      <c r="D91">
         <v>332.14681935310358</v>
       </c>
       <c r="E91" s="8">
@@ -43757,7 +43700,7 @@
       <c r="P91" s="7">
         <v>1541527</v>
       </c>
-      <c r="Q91" s="30">
+      <c r="Q91">
         <v>45215737</v>
       </c>
       <c r="R91" s="9">
@@ -43780,7 +43723,7 @@
       <c r="C92" s="7">
         <v>13.550612688064581</v>
       </c>
-      <c r="D92" s="30">
+      <c r="D92">
         <v>336.44582104682922</v>
       </c>
       <c r="E92" s="8">
@@ -43804,7 +43747,7 @@
       <c r="P92" s="7">
         <v>1554690</v>
       </c>
-      <c r="Q92" s="30">
+      <c r="Q92">
         <v>46640995</v>
       </c>
       <c r="R92" s="9">
@@ -43827,7 +43770,7 @@
       <c r="C93" s="7">
         <v>14.554482936859131</v>
       </c>
-      <c r="D93" s="30">
+      <c r="D93">
         <v>385.43208312988281</v>
       </c>
       <c r="E93" s="8">
@@ -43851,7 +43794,7 @@
       <c r="P93" s="7">
         <v>1674084</v>
       </c>
-      <c r="Q93" s="30">
+      <c r="Q93">
         <v>56549864</v>
       </c>
       <c r="R93" s="9">
@@ -43874,7 +43817,7 @@
       <c r="C94" s="7">
         <v>15.45362257957458</v>
       </c>
-      <c r="D94" s="30">
+      <c r="D94">
         <v>400.01804327964783</v>
       </c>
       <c r="E94" s="8">
@@ -43898,7 +43841,7 @@
       <c r="P94" s="7">
         <v>1793019</v>
       </c>
-      <c r="Q94" s="30">
+      <c r="Q94">
         <v>60255030</v>
       </c>
       <c r="R94" s="9">
@@ -43913,10 +43856,6 @@
       <c r="Z94" s="12"/>
     </row>
     <row r="95" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="D95" s="30"/>
-      <c r="E95" s="30"/>
-      <c r="Q95" s="30"/>
-      <c r="T95" s="30"/>
       <c r="Z95" s="11"/>
       <c r="AA95" s="11"/>
       <c r="AB95" s="11"/>
@@ -43935,23 +43874,13 @@
       <c r="AT95" s="11"/>
       <c r="AU95" s="11"/>
     </row>
-    <row r="96" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="D96" s="30"/>
-      <c r="E96" s="30"/>
-      <c r="Q96" s="30"/>
-      <c r="T96" s="30"/>
-    </row>
     <row r="97" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D97" s="30"/>
-      <c r="E97" s="30"/>
       <c r="P97" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="Q97" s="30"/>
-      <c r="T97" s="30"/>
     </row>
     <row r="98" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
@@ -43963,10 +43892,10 @@
       <c r="C98" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D98" s="32" t="s">
+      <c r="D98" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E98" s="32" t="s">
+      <c r="E98" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F98" s="1" t="s">
@@ -43987,7 +43916,7 @@
       <c r="P98" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Q98" s="32" t="s">
+      <c r="Q98" s="1" t="s">
         <v>16</v>
       </c>
       <c r="R98" s="1" t="s">
@@ -43996,7 +43925,7 @@
       <c r="S98" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T98" s="32" t="s">
+      <c r="T98" s="1" t="s">
         <v>25</v>
       </c>
       <c r="X98" s="10"/>
@@ -44012,7 +43941,7 @@
       <c r="C99" s="7">
         <v>24.16229953765869</v>
       </c>
-      <c r="D99" s="30">
+      <c r="D99">
         <v>30.616044902801509</v>
       </c>
       <c r="E99" s="8">
@@ -44036,7 +43965,7 @@
       <c r="P99" s="7">
         <v>4604491</v>
       </c>
-      <c r="Q99" s="30">
+      <c r="Q99">
         <v>4584482</v>
       </c>
       <c r="R99" s="9">
@@ -44059,7 +43988,7 @@
       <c r="C100" s="7">
         <v>27.619652509689331</v>
       </c>
-      <c r="D100" s="30">
+      <c r="D100">
         <v>32.162299108505252</v>
       </c>
       <c r="E100" s="8">
@@ -44083,7 +44012,7 @@
       <c r="P100" s="7">
         <v>4735484</v>
       </c>
-      <c r="Q100" s="30">
+      <c r="Q100">
         <v>4735554</v>
       </c>
       <c r="R100" s="9">
@@ -44106,7 +44035,7 @@
       <c r="C101" s="7">
         <v>28.841054534912111</v>
       </c>
-      <c r="D101" s="30">
+      <c r="D101">
         <v>34.723067665100103</v>
       </c>
       <c r="E101" s="8">
@@ -44130,7 +44059,7 @@
       <c r="P101" s="7">
         <v>4736005</v>
       </c>
-      <c r="Q101" s="30">
+      <c r="Q101">
         <v>4735860</v>
       </c>
       <c r="R101" s="9">
@@ -44153,7 +44082,7 @@
       <c r="C102" s="7">
         <v>26.181547307968138</v>
       </c>
-      <c r="D102" s="30">
+      <c r="D102">
         <v>26.568533802032469</v>
       </c>
       <c r="E102" s="8">
@@ -44177,7 +44106,7 @@
       <c r="P102" s="7">
         <v>4736014</v>
       </c>
-      <c r="Q102" s="30">
+      <c r="Q102">
         <v>4735981</v>
       </c>
       <c r="R102" s="9">
@@ -44200,7 +44129,7 @@
       <c r="C103" s="7">
         <v>22.31517057418823</v>
       </c>
-      <c r="D103" s="30">
+      <c r="D103">
         <v>26.528693246841431</v>
       </c>
       <c r="E103" s="8">
@@ -44224,7 +44153,7 @@
       <c r="P103" s="7">
         <v>4736019</v>
       </c>
-      <c r="Q103" s="30">
+      <c r="Q103">
         <v>4736001</v>
       </c>
       <c r="R103" s="9">
@@ -44247,7 +44176,7 @@
       <c r="C104" s="7">
         <v>23.311638069152831</v>
       </c>
-      <c r="D104" s="30">
+      <c r="D104">
         <v>27.464976787567139</v>
       </c>
       <c r="E104" s="8">
@@ -44271,7 +44200,7 @@
       <c r="P104" s="7">
         <v>4736028</v>
       </c>
-      <c r="Q104" s="30">
+      <c r="Q104">
         <v>4736017</v>
       </c>
       <c r="R104" s="9">
@@ -44294,7 +44223,7 @@
       <c r="C105" s="7">
         <v>23.425709342956541</v>
       </c>
-      <c r="D105" s="30">
+      <c r="D105">
         <v>27.41271696090698</v>
       </c>
       <c r="E105" s="8">
@@ -44318,7 +44247,7 @@
       <c r="P105" s="7">
         <v>4736041</v>
       </c>
-      <c r="Q105" s="30">
+      <c r="Q105">
         <v>4736041</v>
       </c>
       <c r="R105" s="9">
@@ -44341,7 +44270,7 @@
       <c r="C106" s="7">
         <v>22.993056535720829</v>
       </c>
-      <c r="D106" s="30">
+      <c r="D106">
         <v>27.676955270767209</v>
       </c>
       <c r="E106" s="8">
@@ -44365,7 +44294,7 @@
       <c r="P106" s="7">
         <v>4736041</v>
       </c>
-      <c r="Q106" s="30">
+      <c r="Q106">
         <v>4736041</v>
       </c>
       <c r="R106" s="9">
@@ -44388,7 +44317,7 @@
       <c r="C107" s="7">
         <v>23.094519376754761</v>
       </c>
-      <c r="D107" s="30">
+      <c r="D107">
         <v>27.42708697319031</v>
       </c>
       <c r="E107" s="8">
@@ -44412,7 +44341,7 @@
       <c r="P107" s="7">
         <v>4736041</v>
       </c>
-      <c r="Q107" s="30">
+      <c r="Q107">
         <v>4736041</v>
       </c>
       <c r="R107" s="9">
@@ -44435,7 +44364,7 @@
       <c r="C108" s="7">
         <v>23.39962911605835</v>
       </c>
-      <c r="D108" s="30">
+      <c r="D108">
         <v>27.437524223327639</v>
       </c>
       <c r="E108" s="8">
@@ -44459,7 +44388,7 @@
       <c r="P108" s="7">
         <v>4736041</v>
       </c>
-      <c r="Q108" s="30">
+      <c r="Q108">
         <v>4736041</v>
       </c>
       <c r="R108" s="9">
@@ -44482,7 +44411,7 @@
       <c r="C109" s="7">
         <v>23.235366392135621</v>
       </c>
-      <c r="D109" s="30">
+      <c r="D109">
         <v>27.392258119583129</v>
       </c>
       <c r="E109" s="8">
@@ -44506,7 +44435,7 @@
       <c r="P109" s="7">
         <v>4736041</v>
       </c>
-      <c r="Q109" s="30">
+      <c r="Q109">
         <v>4736041</v>
       </c>
       <c r="R109" s="9">
@@ -44530,7 +44459,7 @@
       <c r="C110" s="7">
         <v>23.36709022521973</v>
       </c>
-      <c r="D110" s="30">
+      <c r="D110">
         <v>27.524371814727779</v>
       </c>
       <c r="E110" s="8">
@@ -44554,7 +44483,7 @@
       <c r="P110" s="7">
         <v>4736041</v>
       </c>
-      <c r="Q110" s="30">
+      <c r="Q110">
         <v>4736041</v>
       </c>
       <c r="R110" s="9">
@@ -44611,13 +44540,13 @@
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A130" s="27"/>
-      <c r="B130" s="26"/>
-      <c r="C130" s="26"/>
-      <c r="D130" s="26"/>
-      <c r="E130" s="26"/>
-      <c r="F130" s="26"/>
-      <c r="G130" s="26"/>
-      <c r="H130" s="26"/>
+      <c r="B130" s="28"/>
+      <c r="C130" s="28"/>
+      <c r="D130" s="28"/>
+      <c r="E130" s="28"/>
+      <c r="F130" s="28"/>
+      <c r="G130" s="28"/>
+      <c r="H130" s="28"/>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
@@ -47015,16 +46944,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
       <c r="K1" s="25" t="s">
         <v>35</v>
       </c>
@@ -47276,16 +47205,16 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
       <c r="K14" s="25" t="s">
         <v>35</v>
       </c>
@@ -47540,13 +47469,13 @@
       <c r="A27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
       <c r="K27" s="25" t="s">
         <v>35</v>
       </c>
@@ -47801,13 +47730,13 @@
       <c r="A40" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
       <c r="K40" s="25" t="s">
         <v>35</v>
       </c>
@@ -48065,13 +47994,13 @@
       <c r="A53" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
       <c r="K53" s="25" t="s">
         <v>35</v>
       </c>
@@ -48326,13 +48255,13 @@
       <c r="A66" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
       <c r="K66" s="25" t="s">
         <v>35</v>
       </c>
@@ -48587,13 +48516,13 @@
       <c r="A79" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B79" s="35"/>
-      <c r="C79" s="35"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="35"/>
-      <c r="F79" s="35"/>
-      <c r="G79" s="35"/>
-      <c r="H79" s="35"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
       <c r="K79" s="25" t="s">
         <v>35</v>
       </c>
@@ -48848,13 +48777,13 @@
       <c r="A92" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B92" s="35"/>
-      <c r="C92" s="35"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="35"/>
-      <c r="F92" s="35"/>
-      <c r="G92" s="35"/>
-      <c r="H92" s="35"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
       <c r="K92" s="25" t="s">
         <v>35</v>
       </c>

--- a/TempiEsecuzione.xlsx
+++ b/TempiEsecuzione.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\OneDrive\UNI\Tirocinio\Codici\risultati_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EF9960-C239-4533-8101-43935EE414F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F95F6B-7FBD-4F37-B102-21FA37BDE252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
